--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_4.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_4.xlsx
@@ -85,7 +85,7 @@
     <t>SI_Armp_CaPhosphate</t>
   </si>
   <si>
-    <t>NH4+ Permeability</t>
+    <t>d_CaPhosphate</t>
   </si>
 </sst>
 </file>
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.0670721622722E-06</v>
+        <v>5.602738834667948E-06</v>
       </c>
       <c r="C2">
-        <v>0.04317643346750398</v>
+        <v>0.03340016876092325</v>
       </c>
       <c r="D2">
-        <v>0.003191413474347645</v>
+        <v>0.002221449395700064</v>
       </c>
       <c r="E2">
-        <v>0.04550204239681587</v>
+        <v>0.03541131819180247</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G2">
-        <v>17.23779555145773</v>
+        <v>19.35692344171109</v>
       </c>
       <c r="H2">
-        <v>17.43422555942259</v>
+        <v>19.79234605441968</v>
       </c>
       <c r="I2">
-        <v>16.54163239798381</v>
+        <v>19.88328301961197</v>
       </c>
       <c r="J2">
-        <v>17.56555363524968</v>
+        <v>22.76892830701859</v>
       </c>
       <c r="K2">
-        <v>7.923052988658743</v>
+        <v>8.500190740882719</v>
       </c>
       <c r="L2">
-        <v>8.468434161272759</v>
+        <v>7.318146018420611</v>
       </c>
       <c r="M2">
-        <v>8.356434041370964</v>
+        <v>8.489379922808947</v>
       </c>
       <c r="N2">
-        <v>0.01663920310445973</v>
+        <v>0.009716677493085446</v>
       </c>
       <c r="O2">
-        <v>0.001355589893150212</v>
+        <v>0.0005612376174125749</v>
       </c>
       <c r="P2">
-        <v>0.01532593615160124</v>
+        <v>0.008760842872300223</v>
       </c>
       <c r="Q2">
-        <v>0.001226216319087856</v>
+        <v>0.0006176660142356231</v>
       </c>
       <c r="R2">
-        <v>0.0008731764805377391</v>
+        <v>0.0007111532600611825</v>
       </c>
       <c r="S2">
-        <v>2.111275907086776E-06</v>
+        <v>1.239747070254912E-06</v>
       </c>
       <c r="T2">
-        <v>0.002545949307812597</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0008259831806852564</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>11.57285034458113</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002946388361498493</v>
+        <v>3.29039842482538</v>
       </c>
       <c r="X2">
-        <v>1.603847350567063E-06</v>
+        <v>0.0001500278324504676</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.058062583781123E-06</v>
+        <v>5.595277081404278E-06</v>
       </c>
       <c r="C3">
-        <v>0.04358032255834395</v>
+        <v>0.03371510532016793</v>
       </c>
       <c r="D3">
-        <v>0.003227769981503936</v>
+        <v>0.002246168903178696</v>
       </c>
       <c r="E3">
-        <v>0.04594431255737245</v>
+        <v>0.03576066859629536</v>
       </c>
       <c r="F3">
-        <v>6.499985236928875</v>
+        <v>6.899985237356524</v>
       </c>
       <c r="K3">
-        <v>7.921177012842579</v>
+        <v>8.499882947247876</v>
       </c>
       <c r="L3">
-        <v>8.514867501100172</v>
+        <v>7.312639461017712</v>
       </c>
       <c r="M3">
-        <v>8.377367222897705</v>
+        <v>8.489027158715052</v>
       </c>
       <c r="N3">
-        <v>0.0167935830358871</v>
+        <v>0.009809156683748809</v>
       </c>
       <c r="O3">
-        <v>0.00137832698479491</v>
+        <v>0.0005667133460072107</v>
       </c>
       <c r="P3">
-        <v>0.01546835756405087</v>
+        <v>0.008843097183997846</v>
       </c>
       <c r="Q3">
-        <v>0.001232429587519506</v>
+        <v>0.000624444732351763</v>
       </c>
       <c r="R3">
-        <v>0.0008819751189683518</v>
+        <v>0.0007183241036267474</v>
       </c>
       <c r="S3">
-        <v>1.938434871867871E-06</v>
+        <v>1.252257713590271E-06</v>
       </c>
       <c r="T3">
-        <v>0.002563322703036105</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0008413900960451909</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>11.68078349013515</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002980425703095723</v>
+        <v>3.304195611952139</v>
       </c>
       <c r="X3">
-        <v>1.603941149357871E-06</v>
+        <v>0.0001518643821710995</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.049187255211886E-06</v>
+        <v>5.58816601407523E-06</v>
       </c>
       <c r="C4">
-        <v>0.04399208329892395</v>
+        <v>0.03403621691625966</v>
       </c>
       <c r="D4">
-        <v>0.003264800640993683</v>
+        <v>0.002271275335330015</v>
       </c>
       <c r="E4">
-        <v>0.04639559547959363</v>
+        <v>0.03611731170199273</v>
       </c>
       <c r="F4">
-        <v>6.499970398548582</v>
+        <v>6.899970399414826</v>
       </c>
       <c r="K4">
-        <v>7.919185303922224</v>
+        <v>8.499575221206118</v>
       </c>
       <c r="L4">
-        <v>8.512786305116004</v>
+        <v>7.313087886139452</v>
       </c>
       <c r="M4">
-        <v>8.377003431832714</v>
+        <v>8.488770048814757</v>
       </c>
       <c r="N4">
-        <v>0.0169508815670207</v>
+        <v>0.009903467330052295</v>
       </c>
       <c r="O4">
-        <v>0.001392612567377746</v>
+        <v>0.0005729852234973207</v>
       </c>
       <c r="P4">
-        <v>0.01561362213523997</v>
+        <v>0.008926960984524846</v>
       </c>
       <c r="Q4">
-        <v>0.001246239530471775</v>
+        <v>0.0006312810657534611</v>
       </c>
       <c r="R4">
-        <v>0.0008909550851326015</v>
+        <v>0.0007256411632789225</v>
       </c>
       <c r="S4">
-        <v>1.958494966657913E-06</v>
+        <v>1.264508768039905E-06</v>
       </c>
       <c r="T4">
-        <v>0.002580893443923768</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0008479142606385508</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>11.74723122869234</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0003015096189412464</v>
+        <v>3.318118562258157</v>
       </c>
       <c r="X4">
-        <v>1.604040734803889E-06</v>
+        <v>0.0001537390255145132</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.04013742240705E-06</v>
+        <v>5.580912081928925E-06</v>
       </c>
       <c r="C5">
-        <v>0.04441195219230467</v>
+        <v>0.03436369054080533</v>
       </c>
       <c r="D5">
-        <v>0.003302702354068315</v>
+        <v>0.002296957767368636</v>
       </c>
       <c r="E5">
-        <v>0.04685600881616035</v>
+        <v>0.03648127604893694</v>
       </c>
       <c r="F5">
-        <v>6.499955483403649</v>
+        <v>6.899955484719818</v>
       </c>
       <c r="K5">
-        <v>7.917178232425606</v>
+        <v>8.499263050536765</v>
       </c>
       <c r="L5">
-        <v>8.510440062237334</v>
+        <v>7.313523116093506</v>
       </c>
       <c r="M5">
-        <v>8.376754517939041</v>
+        <v>8.48851593314439</v>
       </c>
       <c r="N5">
-        <v>0.01711127609279021</v>
+        <v>0.009999657867233273</v>
       </c>
       <c r="O5">
-        <v>0.00140707183319856</v>
+        <v>0.0005793935769856806</v>
       </c>
       <c r="P5">
-        <v>0.01576173948168088</v>
+        <v>0.009012483457914243</v>
       </c>
       <c r="Q5">
-        <v>0.001260290126748923</v>
+        <v>0.0006382680306734385</v>
       </c>
       <c r="R5">
-        <v>0.0009001199984332814</v>
+        <v>0.0007331089638408903</v>
       </c>
       <c r="S5">
-        <v>1.977963271994787E-06</v>
+        <v>1.277001750596131E-06</v>
       </c>
       <c r="T5">
-        <v>0.002598759208699904</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0008546169113207262</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>11.80393280764793</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0003050496205580508</v>
+        <v>3.332162445165775</v>
       </c>
       <c r="X5">
-        <v>1.60414108837872E-06</v>
+        <v>0.0001556526792756719</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.03090787047037E-06</v>
+        <v>5.573510917053669E-06</v>
       </c>
       <c r="C6">
-        <v>0.0448401735447863</v>
+        <v>0.03469771900719529</v>
       </c>
       <c r="D6">
-        <v>0.003341506140270292</v>
+        <v>0.002323236233455813</v>
       </c>
       <c r="E6">
-        <v>0.04732583251471008</v>
+        <v>0.03685278959361749</v>
       </c>
       <c r="F6">
-        <v>6.499940489993135</v>
+        <v>6.899940491770957</v>
       </c>
       <c r="K6">
-        <v>7.915151167576148</v>
+        <v>8.498947274986383</v>
       </c>
       <c r="L6">
-        <v>8.508064372753756</v>
+        <v>7.31396215906721</v>
       </c>
       <c r="M6">
-        <v>8.376505126148814</v>
+        <v>8.488253377532661</v>
       </c>
       <c r="N6">
-        <v>0.01727486155382763</v>
+        <v>0.01009778562025669</v>
       </c>
       <c r="O6">
-        <v>0.001421861758433269</v>
+        <v>0.0005859499908644685</v>
       </c>
       <c r="P6">
-        <v>0.01591279624579475</v>
+        <v>0.00909971486861467</v>
       </c>
       <c r="Q6">
-        <v>0.001274667413094435</v>
+        <v>0.0006454156052572869</v>
       </c>
       <c r="R6">
-        <v>0.0009094756446328782</v>
+        <v>0.0007407322134459976</v>
       </c>
       <c r="S6">
-        <v>1.997834277774969E-06</v>
+        <v>1.289778423847384E-06</v>
       </c>
       <c r="T6">
-        <v>0.002616927357630937</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008614521636943839</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>11.85710749922275</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003086642329337901</v>
+        <v>3.346330873480188</v>
       </c>
       <c r="X6">
-        <v>1.604242441621193E-06</v>
+        <v>0.000157606599806209</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.021493207728879E-06</v>
+        <v>5.565957979399007E-06</v>
       </c>
       <c r="C7">
-        <v>0.04527700162272857</v>
+        <v>0.03503850303639255</v>
       </c>
       <c r="D7">
-        <v>0.003381244483293718</v>
+        <v>0.002350131701638127</v>
       </c>
       <c r="E7">
-        <v>0.04780535805349296</v>
+        <v>0.03723208982796161</v>
       </c>
       <c r="F7">
-        <v>6.499925416768648</v>
+        <v>6.899925419020274</v>
       </c>
       <c r="K7">
-        <v>7.913123360827256</v>
+        <v>8.49861597432672</v>
       </c>
       <c r="L7">
-        <v>8.505692130516213</v>
+        <v>7.314396425482215</v>
       </c>
       <c r="M7">
-        <v>8.376270909330138</v>
+        <v>8.487972023350359</v>
       </c>
       <c r="N7">
-        <v>0.01744173523588441</v>
+        <v>0.01019791020582924</v>
       </c>
       <c r="O7">
-        <v>0.001437002216316448</v>
+        <v>0.000592659908609039</v>
       </c>
       <c r="P7">
-        <v>0.01606688181245475</v>
+        <v>0.009188707492439484</v>
       </c>
       <c r="Q7">
-        <v>0.001289378335917412</v>
+        <v>0.0006527310881581103</v>
       </c>
       <c r="R7">
-        <v>0.0009190280426366161</v>
+        <v>0.000748515818025178</v>
       </c>
       <c r="S7">
-        <v>2.018062260484321E-06</v>
+        <v>1.302879494823027E-06</v>
       </c>
       <c r="T7">
-        <v>0.002635406043882901</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.00086843089344302</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>11.90885379069065</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0003123580984004767</v>
+        <v>3.360607410769333</v>
       </c>
       <c r="X7">
-        <v>1.604343831958637E-06</v>
+        <v>0.0001596013597535238</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.011887779294061E-06</v>
+        <v>5.558248531062328E-06</v>
       </c>
       <c r="C8">
-        <v>0.04572270116676512</v>
+        <v>0.03538625166761335</v>
       </c>
       <c r="D8">
-        <v>0.003421951464308612</v>
+        <v>0.002377666135087858</v>
       </c>
       <c r="E8">
-        <v>0.04829488899781399</v>
+        <v>0.03761942427564449</v>
       </c>
       <c r="F8">
-        <v>6.499910262132372</v>
+        <v>6.899910264870382</v>
       </c>
       <c r="K8">
-        <v>7.911071338190495</v>
+        <v>8.498277413036071</v>
       </c>
       <c r="L8">
-        <v>8.503262898237045</v>
+        <v>7.314841504246521</v>
       </c>
       <c r="M8">
-        <v>8.376026901648194</v>
+        <v>8.487687643217866</v>
       </c>
       <c r="N8">
-        <v>0.01761199835311385</v>
+        <v>0.01030009371962945</v>
       </c>
       <c r="O8">
-        <v>0.001452490390994208</v>
+        <v>0.000599528324784732</v>
       </c>
       <c r="P8">
-        <v>0.0162240892962477</v>
+        <v>0.009279515752059497</v>
       </c>
       <c r="Q8">
-        <v>0.0013044420352476</v>
+        <v>0.0006602177076741309</v>
       </c>
       <c r="R8">
-        <v>0.0009287834679597664</v>
+        <v>0.0007564648918393308</v>
       </c>
       <c r="S8">
-        <v>2.038777984846189E-06</v>
+        <v>1.316267471244467E-06</v>
       </c>
       <c r="T8">
-        <v>0.002654203651866304</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.000875546714316247</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>11.96005825120412</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0003161311503142931</v>
+        <v>3.375008226757508</v>
       </c>
       <c r="X8">
-        <v>1.604446433090475E-06</v>
+        <v>0.000161638791412944</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.002085736312951E-06</v>
+        <v>5.550377640892728E-06</v>
       </c>
       <c r="C9">
-        <v>0.04617754793775927</v>
+        <v>0.0357411826948448</v>
       </c>
       <c r="D9">
-        <v>0.003463662810741717</v>
+        <v>0.002405862545822306</v>
       </c>
       <c r="E9">
-        <v>0.0487947416726171</v>
+        <v>0.03801505102953802</v>
       </c>
       <c r="F9">
-        <v>6.499895024434823</v>
+        <v>6.899895027672259</v>
       </c>
       <c r="K9">
-        <v>7.909007865001803</v>
+        <v>8.497940351643868</v>
       </c>
       <c r="L9">
-        <v>8.500821098711929</v>
+        <v>7.315312444967877</v>
       </c>
       <c r="M9">
-        <v>8.375791076906589</v>
+        <v>8.487415189188836</v>
       </c>
       <c r="N9">
-        <v>0.01778575650324418</v>
+        <v>0.01040440087441273</v>
       </c>
       <c r="O9">
-        <v>0.001468350135694184</v>
+        <v>0.0006065603534606306</v>
       </c>
       <c r="P9">
-        <v>0.01638451561088211</v>
+        <v>0.009372196376192674</v>
       </c>
       <c r="Q9">
-        <v>0.001319866625735477</v>
+        <v>0.0006678788095622745</v>
       </c>
       <c r="R9">
-        <v>0.0009387484646261634</v>
+        <v>0.000764584769520708</v>
       </c>
       <c r="S9">
-        <v>2.059911066984062E-06</v>
+        <v>1.329905525711596E-06</v>
       </c>
       <c r="T9">
-        <v>0.002673328995280821</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0008828119453935842</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>12.01118574066729</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0003199875291721581</v>
+        <v>3.389550083168061</v>
       </c>
       <c r="X9">
-        <v>1.60454960674991E-06</v>
+        <v>0.0001637207871714584</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.992080971366357E-06</v>
+        <v>5.54234016471147E-06</v>
       </c>
       <c r="C10">
-        <v>0.04664182929783554</v>
+        <v>0.03610352313124722</v>
       </c>
       <c r="D10">
-        <v>0.003506416029964941</v>
+        <v>0.002434745061576838</v>
       </c>
       <c r="E10">
-        <v>0.04930524580725942</v>
+        <v>0.03841923931653742</v>
       </c>
       <c r="F10">
-        <v>6.499879701972652</v>
+        <v>6.899879705723037</v>
       </c>
       <c r="K10">
-        <v>7.906933248826847</v>
+        <v>8.497593082204707</v>
       </c>
       <c r="L10">
-        <v>8.498362769450356</v>
+        <v>7.31577300612605</v>
       </c>
       <c r="M10">
-        <v>8.375561706362616</v>
+        <v>8.487117928304801</v>
       </c>
       <c r="N10">
-        <v>0.01796311961593493</v>
+        <v>0.01051089914094482</v>
       </c>
       <c r="O10">
-        <v>0.00148459310233298</v>
+        <v>0.0006137635096774527</v>
       </c>
       <c r="P10">
-        <v>0.01654826179550327</v>
+        <v>0.009466808523656046</v>
       </c>
       <c r="Q10">
-        <v>0.001335664770332253</v>
+        <v>0.0006757275597414122</v>
       </c>
       <c r="R10">
-        <v>0.0009489298619474588</v>
+        <v>0.0007728810180423927</v>
       </c>
       <c r="S10">
-        <v>2.081485978783847E-06</v>
+        <v>1.343917221723219E-06</v>
       </c>
       <c r="T10">
-        <v>0.002692791137127421</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0008902307705872486</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>12.06250102800403</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0003239299214463398</v>
+        <v>3.40421641697457</v>
       </c>
       <c r="X10">
-        <v>1.604653337558658E-06</v>
+        <v>0.0001658480633430498</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.98186713541788E-06</v>
+        <v>5.534130748790457E-06</v>
       </c>
       <c r="C11">
-        <v>0.04711584482825171</v>
+        <v>0.0364735097034414</v>
       </c>
       <c r="D11">
-        <v>0.003550250501846522</v>
+        <v>0.002464338988025184</v>
       </c>
       <c r="E11">
-        <v>0.04982674526283561</v>
+        <v>0.03883227010555408</v>
       </c>
       <c r="F11">
-        <v>6.499864292986074</v>
+        <v>6.899864297263433</v>
       </c>
       <c r="K11">
-        <v>7.904841546369783</v>
+        <v>8.497237968500027</v>
       </c>
       <c r="L11">
-        <v>8.495881160280959</v>
+        <v>7.316251611087541</v>
       </c>
       <c r="M11">
-        <v>8.375337201314204</v>
+        <v>8.48682362614063</v>
       </c>
       <c r="N11">
-        <v>0.01814420232487561</v>
+        <v>0.01061965887315655</v>
       </c>
       <c r="O11">
-        <v>0.00150123211049549</v>
+        <v>0.0006211424363541328</v>
       </c>
       <c r="P11">
-        <v>0.01671543319138427</v>
+        <v>0.009563413808973789</v>
       </c>
       <c r="Q11">
-        <v>0.001351850877222983</v>
+        <v>0.0006837650521001931</v>
       </c>
       <c r="R11">
-        <v>0.0009593347891559058</v>
+        <v>0.0007813594477217407</v>
       </c>
       <c r="S11">
-        <v>2.103525799733528E-06</v>
+        <v>1.358227311693559E-06</v>
       </c>
       <c r="T11">
-        <v>0.002712599492803687</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0008978073645036776</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>12.11416882360973</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0003279607549335199</v>
+        <v>3.419014447706061</v>
       </c>
       <c r="X11">
-        <v>1.604757922681511E-06</v>
+        <v>0.0001680222905189019</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.971437591309276E-06</v>
+        <v>5.525743794408229E-06</v>
       </c>
       <c r="C12">
-        <v>0.04759990698743399</v>
+        <v>0.03685138937805714</v>
       </c>
       <c r="D12">
-        <v>0.003595207618078122</v>
+        <v>0.002494670891008405</v>
       </c>
       <c r="E12">
-        <v>0.05035959877735353</v>
+        <v>0.03925443674455654</v>
       </c>
       <c r="F12">
-        <v>6.499848795656574</v>
+        <v>6.899848800475452</v>
       </c>
       <c r="K12">
-        <v>7.90273309146985</v>
+        <v>8.496869362170633</v>
       </c>
       <c r="L12">
-        <v>8.493358481682831</v>
+        <v>7.316728969017992</v>
       </c>
       <c r="M12">
-        <v>8.375110841692011</v>
+        <v>8.48651085772747</v>
       </c>
       <c r="N12">
-        <v>0.0183291242161465</v>
+        <v>0.01073075350023213</v>
       </c>
       <c r="O12">
-        <v>0.001518279137460884</v>
+        <v>0.000628704687468152</v>
       </c>
       <c r="P12">
-        <v>0.01688613966154161</v>
+        <v>0.009662076572939051</v>
       </c>
       <c r="Q12">
-        <v>0.001368443034547127</v>
+        <v>0.0006920024031003734</v>
       </c>
       <c r="R12">
-        <v>0.0009699706920820854</v>
+        <v>0.000790026127948519</v>
       </c>
       <c r="S12">
-        <v>2.126080594895421E-06</v>
+        <v>1.372914517981287E-06</v>
       </c>
       <c r="T12">
-        <v>0.002732763849784798</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.0009055439796408081</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>12.16629681225861</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.0003320827550084442</v>
+        <v>3.433938524282517</v>
       </c>
       <c r="X12">
-        <v>1.604863345426507E-06</v>
+        <v>0.0001702447480140494</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.960785446476259E-06</v>
+        <v>5.517173472423139E-06</v>
       </c>
       <c r="C13">
-        <v>0.04809434181180877</v>
+        <v>0.03723741992285545</v>
       </c>
       <c r="D13">
-        <v>0.003641330880580038</v>
+        <v>0.002525768664190145</v>
       </c>
       <c r="E13">
-        <v>0.050904180797341</v>
+        <v>0.03968604565498349</v>
       </c>
       <c r="F13">
-        <v>6.49983320810392</v>
+        <v>6.899833213479416</v>
       </c>
       <c r="K13">
-        <v>7.900613387650244</v>
+        <v>8.496502534540943</v>
       </c>
       <c r="L13">
-        <v>8.490824211391303</v>
+        <v>7.317220769009018</v>
       </c>
       <c r="M13">
-        <v>8.374894133018616</v>
+        <v>8.486197916781595</v>
       </c>
       <c r="N13">
-        <v>0.01851801011590702</v>
+        <v>0.01084425966666768</v>
       </c>
       <c r="O13">
-        <v>0.001535754723083455</v>
+        <v>0.0006364571067503783</v>
       </c>
       <c r="P13">
-        <v>0.01706049580341796</v>
+        <v>0.009762863923161957</v>
       </c>
       <c r="Q13">
-        <v>0.001385450944541322</v>
+        <v>0.0007004443537226605</v>
       </c>
       <c r="R13">
-        <v>0.0009808453506381213</v>
+        <v>0.0007988874000095363</v>
       </c>
       <c r="S13">
-        <v>2.149111369214389E-06</v>
+        <v>1.387933233672844E-06</v>
       </c>
       <c r="T13">
-        <v>0.002753294410123495</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0.0009134512526881328</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>12.21896920302151</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.0003362996105661442</v>
+        <v>3.449015178864645</v>
       </c>
       <c r="X13">
-        <v>1.604969330617488E-06</v>
+        <v>0.000172517885949347</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.94990349625854E-06</v>
+        <v>5.508413676734634E-06</v>
       </c>
       <c r="C14">
-        <v>0.04859948966330001</v>
+        <v>0.03763187050534027</v>
       </c>
       <c r="D14">
-        <v>0.003688666065251582</v>
+        <v>0.002557661626689657</v>
       </c>
       <c r="E14">
-        <v>0.05146088232092673</v>
+        <v>0.0401274170531341</v>
       </c>
       <c r="F14">
-        <v>6.499817528383692</v>
+        <v>6.899817534331491</v>
       </c>
       <c r="K14">
-        <v>7.898481271401196</v>
+        <v>8.496125637526323</v>
       </c>
       <c r="L14">
-        <v>8.488254842005356</v>
+        <v>7.317727568804417</v>
       </c>
       <c r="M14">
-        <v>8.374679688812884</v>
+        <v>8.485882937295552</v>
       </c>
       <c r="N14">
-        <v>0.01871099029082547</v>
+        <v>0.01096025742303038</v>
       </c>
       <c r="O14">
-        <v>0.001553672462482217</v>
+        <v>0.0006444061961094942</v>
       </c>
       <c r="P14">
-        <v>0.01723862131317792</v>
+        <v>0.009865845963723767</v>
       </c>
       <c r="Q14">
-        <v>0.001402895137355219</v>
+        <v>0.0007090980512694578</v>
       </c>
       <c r="R14">
-        <v>0.0009919668988116316</v>
+        <v>0.0008079498939501711</v>
       </c>
       <c r="S14">
-        <v>2.172674569809837E-06</v>
+        <v>1.403301451587847E-06</v>
       </c>
       <c r="T14">
-        <v>0.002774201718730715</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.0009215314973437516</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>12.27224678811857</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.0003406147582052748</v>
+        <v>3.464229393095174</v>
       </c>
       <c r="X14">
-        <v>1.60507593642994E-06</v>
+        <v>0.0001748427916747893</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.938784238359355E-06</v>
+        <v>5.499458052463395E-06</v>
       </c>
       <c r="C15">
-        <v>0.04911570602649597</v>
+        <v>0.03803502233153166</v>
       </c>
       <c r="D15">
-        <v>0.003737261350495426</v>
+        <v>0.002590380596586705</v>
       </c>
       <c r="E15">
-        <v>0.05203011182788007</v>
+        <v>0.04057888574550322</v>
       </c>
       <c r="F15">
-        <v>6.499801754483742</v>
+        <v>6.899801761020132</v>
       </c>
       <c r="K15">
-        <v>7.896329999367413</v>
+        <v>8.495735051824633</v>
       </c>
       <c r="L15">
-        <v>8.485671351205545</v>
+        <v>7.318238110434956</v>
       </c>
       <c r="M15">
-        <v>8.374473858358233</v>
+        <v>8.485553558053802</v>
       </c>
       <c r="N15">
-        <v>0.01890820084057654</v>
+        <v>0.01107883042563866</v>
       </c>
       <c r="O15">
-        <v>0.001572051536817236</v>
+        <v>0.0006525601785857541</v>
       </c>
       <c r="P15">
-        <v>0.01742064115427933</v>
+        <v>0.009971095939728988</v>
       </c>
       <c r="Q15">
-        <v>0.001420788542686627</v>
+        <v>0.0007179741201340508</v>
       </c>
       <c r="R15">
-        <v>0.001003343843917859</v>
+        <v>0.0008172205444386605</v>
       </c>
       <c r="S15">
-        <v>2.196755931559535E-06</v>
+        <v>1.419072362244928E-06</v>
       </c>
       <c r="T15">
-        <v>0.002795496778746657</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.0009297937703746069</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>12.32618205444714</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.0003450309512434205</v>
+        <v>3.479578519702962</v>
       </c>
       <c r="X15">
-        <v>1.605183500031629E-06</v>
+        <v>0.0001772210265709628</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.92741982516996E-06</v>
+        <v>5.490299936703684E-06</v>
       </c>
       <c r="C16">
-        <v>0.04964336235993783</v>
+        <v>0.03844716932844962</v>
       </c>
       <c r="D16">
-        <v>0.003787167497583453</v>
+        <v>0.002623958006790101</v>
       </c>
       <c r="E16">
-        <v>0.05261229624910627</v>
+        <v>0.0410408019497043</v>
       </c>
       <c r="F16">
-        <v>6.499785884321603</v>
+        <v>6.899785891463513</v>
       </c>
       <c r="K16">
-        <v>7.89415881144782</v>
+        <v>8.495343898335948</v>
       </c>
       <c r="L16">
-        <v>8.483036865053901</v>
+        <v>7.318766739817273</v>
       </c>
       <c r="M16">
-        <v>8.374264315405153</v>
+        <v>8.485225703039713</v>
       </c>
       <c r="N16">
-        <v>0.0191097839720156</v>
+        <v>0.01120006612618579</v>
       </c>
       <c r="O16">
-        <v>0.001590904125351171</v>
+        <v>0.0006609269931202486</v>
       </c>
       <c r="P16">
-        <v>0.01760668595208855</v>
+        <v>0.01007869037949172</v>
       </c>
       <c r="Q16">
-        <v>0.001439155110996691</v>
+        <v>0.0007270786978220592</v>
       </c>
       <c r="R16">
-        <v>0.001014985089127003</v>
+        <v>0.0008267066080674561</v>
       </c>
       <c r="S16">
-        <v>2.221440126152364E-06</v>
+        <v>1.435207487603583E-06</v>
       </c>
       <c r="T16">
-        <v>0.002817190999774239</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0.0009382385918547558</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>12.38081397818247</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.0003495516620319425</v>
+        <v>3.495087040282844</v>
       </c>
       <c r="X16">
-        <v>1.605292059427609E-06</v>
+        <v>0.0001796552563014939</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.915802084685932E-06</v>
+        <v>5.480932381292546E-06</v>
       </c>
       <c r="C17">
-        <v>0.0501828470053773</v>
+        <v>0.03886861887341033</v>
       </c>
       <c r="D17">
-        <v>0.003838437997393813</v>
+        <v>0.002658427994259043</v>
       </c>
       <c r="E17">
-        <v>0.05320788203069106</v>
+        <v>0.04151353219977637</v>
       </c>
       <c r="F17">
-        <v>6.499769915740508</v>
+        <v>6.899769923505541</v>
       </c>
       <c r="K17">
-        <v>7.891982609223305</v>
+        <v>8.494938309882944</v>
       </c>
       <c r="L17">
-        <v>8.480423512056886</v>
+        <v>7.31930270153803</v>
       </c>
       <c r="M17">
-        <v>8.374078033597002</v>
+        <v>8.484886327162439</v>
       </c>
       <c r="N17">
-        <v>0.01931588844079989</v>
+        <v>0.0113240559983395</v>
       </c>
       <c r="O17">
-        <v>0.001610263776746383</v>
+        <v>0.0006695146179800885</v>
       </c>
       <c r="P17">
-        <v>0.01779689219727786</v>
+        <v>0.01018870934045254</v>
       </c>
       <c r="Q17">
-        <v>0.001458002470442086</v>
+        <v>0.0007364222064842388</v>
       </c>
       <c r="R17">
-        <v>0.001026899955585836</v>
+        <v>0.0008364156833683956</v>
       </c>
       <c r="S17">
-        <v>2.24660982151508E-06</v>
+        <v>1.451764360584219E-06</v>
       </c>
       <c r="T17">
-        <v>0.00283929632222035</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.0009468849156059381</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>12.43618838908074</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.0003541821108907282</v>
+        <v>3.51073615086478</v>
       </c>
       <c r="X17">
-        <v>1.605400869538835E-06</v>
+        <v>0.0001821466133477539</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.903922448925714E-06</v>
+        <v>5.471348103622424E-06</v>
       </c>
       <c r="C18">
-        <v>0.05073456616023424</v>
+        <v>0.0392996925743526</v>
       </c>
       <c r="D18">
-        <v>0.00389112929249164</v>
+        <v>0.002693826527212989</v>
       </c>
       <c r="E18">
-        <v>0.05381733622373754</v>
+        <v>0.04199746029029185</v>
       </c>
       <c r="F18">
-        <v>6.499753846506296</v>
+        <v>6.899753854912747</v>
       </c>
       <c r="K18">
-        <v>7.889783475602301</v>
+        <v>8.494522336456095</v>
       </c>
       <c r="L18">
-        <v>8.477737628525229</v>
+        <v>7.319842071744491</v>
       </c>
       <c r="M18">
-        <v>8.373880679367357</v>
+        <v>8.484531099537911</v>
       </c>
       <c r="N18">
-        <v>0.01952666968680053</v>
+        <v>0.01145089577667711</v>
       </c>
       <c r="O18">
-        <v>0.001630131506460766</v>
+        <v>0.0006783333285326167</v>
       </c>
       <c r="P18">
-        <v>0.017991402789264</v>
+        <v>0.01030123656823788</v>
       </c>
       <c r="Q18">
-        <v>0.001477364440271123</v>
+        <v>0.0007460163672159578</v>
       </c>
       <c r="R18">
-        <v>0.001039098209702078</v>
+        <v>0.0008463557300232505</v>
       </c>
       <c r="S18">
-        <v>2.272465121745001E-06</v>
+        <v>1.468773755726952E-06</v>
       </c>
       <c r="T18">
-        <v>0.00286182502944195</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0.0009557238215005476</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>12.49233298166682</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.0003589241122122892</v>
+        <v>3.526536180429371</v>
       </c>
       <c r="X18">
-        <v>1.605510826219885E-06</v>
+        <v>0.0001846974045165115</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.891771999378076E-06</v>
+        <v>5.461539485947739E-06</v>
       </c>
       <c r="C19">
-        <v>0.05129894491767693</v>
+        <v>0.03974072710504103</v>
       </c>
       <c r="D19">
-        <v>0.003945300934727273</v>
+        <v>0.00273019152066818</v>
       </c>
       <c r="E19">
-        <v>0.05444114772075298</v>
+        <v>0.04249298830554545</v>
       </c>
       <c r="F19">
-        <v>6.49973767430334</v>
+        <v>6.899737683370265</v>
       </c>
       <c r="K19">
-        <v>7.887563746198832</v>
+        <v>8.494103034063116</v>
       </c>
       <c r="L19">
-        <v>8.475021007377233</v>
+        <v>7.320408746094605</v>
       </c>
       <c r="M19">
-        <v>8.373690160574258</v>
+        <v>8.484182956943618</v>
       </c>
       <c r="N19">
-        <v>0.01974229062873233</v>
+        <v>0.0115806856856909</v>
       </c>
       <c r="O19">
-        <v>0.00165053735388569</v>
+        <v>0.0006873906617555901</v>
       </c>
       <c r="P19">
-        <v>0.01819036710672175</v>
+        <v>0.01041635970318995</v>
       </c>
       <c r="Q19">
-        <v>0.001497253703720035</v>
+        <v>0.0007558656448692349</v>
       </c>
       <c r="R19">
-        <v>0.001051590086142805</v>
+        <v>0.0008565350909421364</v>
       </c>
       <c r="S19">
-        <v>2.298935946591098E-06</v>
+        <v>1.486173280434543E-06</v>
       </c>
       <c r="T19">
-        <v>0.002884790104236425</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0.0009647709997598192</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>12.5492815092206</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.0003637826880609023</v>
+        <v>3.542502040033398</v>
       </c>
       <c r="X19">
-        <v>1.605621812690058E-06</v>
+        <v>0.0001873101779137598</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.879341388213638E-06</v>
+        <v>5.451498555071098E-06</v>
       </c>
       <c r="C20">
-        <v>0.05187642838088362</v>
+        <v>0.04019207509997241</v>
       </c>
       <c r="D20">
-        <v>0.004001015842656004</v>
+        <v>0.002767562969484119</v>
       </c>
       <c r="E20">
-        <v>0.05507982849563851</v>
+        <v>0.04300053771404667</v>
       </c>
       <c r="F20">
-        <v>6.499721396730438</v>
+        <v>6.899721406477664</v>
       </c>
       <c r="K20">
-        <v>7.885332724679366</v>
+        <v>8.493667241206815</v>
       </c>
       <c r="L20">
-        <v>8.472302191250083</v>
+        <v>7.320978369537353</v>
       </c>
       <c r="M20">
-        <v>8.37351342421722</v>
+        <v>8.483818032559039</v>
       </c>
       <c r="N20">
-        <v>0.01996292176623046</v>
+        <v>0.0117135307469584</v>
       </c>
       <c r="O20">
-        <v>0.001671509095066855</v>
+        <v>0.0006966974671143692</v>
       </c>
       <c r="P20">
-        <v>0.01839394166041689</v>
+        <v>0.0105341706063402</v>
       </c>
       <c r="Q20">
-        <v>0.001517691257198007</v>
+        <v>0.0007659852904375304</v>
       </c>
       <c r="R20">
-        <v>0.001064386319681783</v>
+        <v>0.0008669625167672789</v>
       </c>
       <c r="S20">
-        <v>2.32601306924235E-06</v>
+        <v>1.504061635481422E-06</v>
       </c>
       <c r="T20">
-        <v>0.002908204971364188</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.000974037146203983</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>12.60706850639131</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.0003687625561925995</v>
+        <v>3.558616911933051</v>
       </c>
       <c r="X20">
-        <v>1.605733363766032E-06</v>
+        <v>0.0001899864639450527</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.866620851232524E-06</v>
+        <v>5.441216953299194E-06</v>
       </c>
       <c r="C21">
-        <v>0.05246748285666421</v>
+        <v>0.04065410611392905</v>
       </c>
       <c r="D21">
-        <v>0.004058340514292075</v>
+        <v>0.002805983095868598</v>
       </c>
       <c r="E21">
-        <v>0.05573391499952374</v>
+        <v>0.04352055054096506</v>
       </c>
       <c r="F21">
-        <v>6.499705011296672</v>
+        <v>6.899705021744861</v>
       </c>
       <c r="K21">
-        <v>7.883081146914574</v>
+        <v>8.493220678463244</v>
       </c>
       <c r="L21">
-        <v>8.469525812103157</v>
+        <v>7.321547252786192</v>
       </c>
       <c r="M21">
-        <v>8.373333318381531</v>
+        <v>8.48343014826459</v>
       </c>
       <c r="N21">
-        <v>0.020188741675751</v>
+        <v>0.01184954103436389</v>
       </c>
       <c r="O21">
-        <v>0.001693059316967024</v>
+        <v>0.0007062653216311925</v>
       </c>
       <c r="P21">
-        <v>0.018602290430827</v>
+        <v>0.01065476548678344</v>
       </c>
       <c r="Q21">
-        <v>0.001538706402547847</v>
+        <v>0.0007763887497643527</v>
       </c>
       <c r="R21">
-        <v>0.001077498175318975</v>
+        <v>0.0008776471890528568</v>
       </c>
       <c r="S21">
-        <v>2.353813522503824E-06</v>
+        <v>1.522479793326009E-06</v>
       </c>
       <c r="T21">
-        <v>0.002932083586489623</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0.0009835221791069822</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>12.66572154364514</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.0003738678418098542</v>
+        <v>3.574893773587899</v>
       </c>
       <c r="X21">
-        <v>1.605845942654271E-06</v>
+        <v>0.0001927289508729807</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.853600150287715E-06</v>
+        <v>5.430685919777303E-06</v>
       </c>
       <c r="C22">
-        <v>0.05307259713594387</v>
+        <v>0.04112720765165481</v>
       </c>
       <c r="D22">
-        <v>0.004117345308027725</v>
+        <v>0.002845496503704929</v>
       </c>
       <c r="E22">
-        <v>0.05640396960376239</v>
+        <v>0.04405349063022736</v>
       </c>
       <c r="F22">
-        <v>6.499688515416824</v>
+        <v>6.899688526587492</v>
       </c>
       <c r="K22">
-        <v>7.88081218880462</v>
+        <v>8.492768535593569</v>
       </c>
       <c r="L22">
-        <v>8.466735663465721</v>
+        <v>7.322143178376279</v>
       </c>
       <c r="M22">
-        <v>8.373165396639923</v>
+        <v>8.483048571829407</v>
       </c>
       <c r="N22">
-        <v>0.0204199377052358</v>
+        <v>0.01198883198077305</v>
       </c>
       <c r="O22">
-        <v>0.001715221650294455</v>
+        <v>0.0007161027323484325</v>
       </c>
       <c r="P22">
-        <v>0.01881558523118048</v>
+        <v>0.01077824519599618</v>
       </c>
       <c r="Q22">
-        <v>0.001560317269765578</v>
+        <v>0.0007870803897649969</v>
       </c>
       <c r="R22">
-        <v>0.001090937479841431</v>
+        <v>0.000888598747918601</v>
       </c>
       <c r="S22">
-        <v>2.382280545956399E-06</v>
+        <v>1.541343642885416E-06</v>
       </c>
       <c r="T22">
-        <v>0.002956440604081906</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.0009932419582607383</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>12.72527352143304</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.0003791030675100805</v>
+        <v>3.591345042300432</v>
       </c>
       <c r="X22">
-        <v>1.605959390559769E-06</v>
+        <v>0.000195540451618153</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.840268587142101E-06</v>
+        <v>5.419896271016678E-06</v>
       </c>
       <c r="C23">
-        <v>0.0536922838679428</v>
+        <v>0.04161178627378075</v>
       </c>
       <c r="D23">
-        <v>0.004178104693695952</v>
+        <v>0.002886150345500219</v>
       </c>
       <c r="E23">
-        <v>0.05709058219941936</v>
+        <v>0.04459984499928726</v>
       </c>
       <c r="F23">
-        <v>6.499671906406208</v>
+        <v>6.899671918321796</v>
       </c>
       <c r="K23">
-        <v>7.878526214594271</v>
+        <v>8.492305310148188</v>
       </c>
       <c r="L23">
-        <v>8.463898390731035</v>
+        <v>7.32275254540031</v>
       </c>
       <c r="M23">
-        <v>8.372999415224031</v>
+        <v>8.482656333231452</v>
       </c>
       <c r="N23">
-        <v>0.02065670626289329</v>
+        <v>0.01213152475606956</v>
       </c>
       <c r="O23">
-        <v>0.001738017177554143</v>
+        <v>0.0007262228743520607</v>
       </c>
       <c r="P23">
-        <v>0.01903400634461612</v>
+        <v>0.01090471563658138</v>
       </c>
       <c r="Q23">
-        <v>0.001582554980973849</v>
+        <v>0.0007980769390986968</v>
       </c>
       <c r="R23">
-        <v>0.001104716659579348</v>
+        <v>0.0008998273226562682</v>
       </c>
       <c r="S23">
-        <v>2.411499208656799E-06</v>
+        <v>1.560732826604544E-06</v>
       </c>
       <c r="T23">
-        <v>0.002981291219851794</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.00100320044998677</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>12.78575388431175</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.0003844736417969765</v>
+        <v>3.607966471698504</v>
       </c>
       <c r="X23">
-        <v>1.606073689270286E-06</v>
+        <v>0.0001984232371420334</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.826614949597673E-06</v>
+        <v>5.408838363802235E-06</v>
       </c>
       <c r="C24">
-        <v>0.0543270810368434</v>
+        <v>0.04210826878568179</v>
       </c>
       <c r="D24">
-        <v>0.004240697575665213</v>
+        <v>0.002927994511416586</v>
       </c>
       <c r="E24">
-        <v>0.05779437187034949</v>
+        <v>0.04516012529102304</v>
       </c>
       <c r="F24">
-        <v>6.499655181475892</v>
+        <v>6.899655194159815</v>
       </c>
       <c r="K24">
-        <v>7.876219963008113</v>
+        <v>8.491843476750478</v>
       </c>
       <c r="L24">
-        <v>8.461056820110864</v>
+        <v>7.323382146357361</v>
       </c>
       <c r="M24">
-        <v>8.372848768325932</v>
+        <v>8.482262180349514</v>
       </c>
       <c r="N24">
-        <v>0.02089925355885917</v>
+        <v>0.01227774657506594</v>
       </c>
       <c r="O24">
-        <v>0.001761480507437595</v>
+        <v>0.0007366374463104806</v>
       </c>
       <c r="P24">
-        <v>0.01925774290056025</v>
+        <v>0.01103428792757475</v>
       </c>
       <c r="Q24">
-        <v>0.00160544048123395</v>
+        <v>0.0008093894312742934</v>
       </c>
       <c r="R24">
-        <v>0.001118848777019998</v>
+        <v>0.0009113435609874178</v>
       </c>
       <c r="S24">
-        <v>2.441428363678122E-06</v>
+        <v>1.580636749879593E-06</v>
       </c>
       <c r="T24">
-        <v>0.003006651357926987</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.001013413489524948</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>12.84719660246055</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.0003899845685870677</v>
+        <v>3.624782095640537</v>
       </c>
       <c r="X24">
-        <v>1.606189001849594E-06</v>
+        <v>0.0002013808141196584</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.812627473641596E-06</v>
+        <v>5.397502072605245E-06</v>
       </c>
       <c r="C25">
-        <v>0.05497755354932624</v>
+        <v>0.0426171035165164</v>
       </c>
       <c r="D25">
-        <v>0.004305207630715647</v>
+        <v>0.002971081826692043</v>
       </c>
       <c r="E25">
-        <v>0.05851598869642357</v>
+        <v>0.04573486933989229</v>
       </c>
       <c r="F25">
-        <v>6.499638337726924</v>
+        <v>6.89963835120361</v>
       </c>
       <c r="K25">
-        <v>7.873899008451642</v>
+        <v>8.491358170090818</v>
       </c>
       <c r="L25">
-        <v>8.458169226780798</v>
+        <v>7.324026432809541</v>
       </c>
       <c r="M25">
-        <v>8.372702716260555</v>
+        <v>8.481857118602571</v>
       </c>
       <c r="N25">
-        <v>0.02114779606602049</v>
+        <v>0.01242763110920562</v>
       </c>
       <c r="O25">
-        <v>0.001785635343851695</v>
+        <v>0.0007473598641222407</v>
       </c>
       <c r="P25">
-        <v>0.01948699358133072</v>
+        <v>0.0111670788171371</v>
       </c>
       <c r="Q25">
-        <v>0.001629008282400474</v>
+        <v>0.0008210336095654087</v>
       </c>
       <c r="R25">
-        <v>0.001133347573755795</v>
+        <v>0.0009231586638995935</v>
       </c>
       <c r="S25">
-        <v>2.472160544281147E-06</v>
+        <v>1.601109903663806E-06</v>
       </c>
       <c r="T25">
-        <v>0.00303253756401013</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0.001023885543089813</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>12.909632591701</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0.000395641744012692</v>
+        <v>3.641757703858168</v>
       </c>
       <c r="X25">
-        <v>1.606305049577418E-06</v>
+        <v>0.0002044146053110718</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.79829383630738E-06</v>
+        <v>5.385876764836179E-06</v>
       </c>
       <c r="C26">
-        <v>0.05564429494299217</v>
+        <v>0.04313876169664566</v>
       </c>
       <c r="D26">
-        <v>0.004371723651042362</v>
+        <v>0.003015468266692353</v>
       </c>
       <c r="E26">
-        <v>0.05925611572020973</v>
+        <v>0.0463246428605035</v>
       </c>
       <c r="F26">
-        <v>6.499621372144366</v>
+        <v>6.899621386439326</v>
       </c>
       <c r="K26">
-        <v>7.871548139089929</v>
+        <v>8.490869247312926</v>
       </c>
       <c r="L26">
-        <v>8.455214771184828</v>
+        <v>7.324683503257661</v>
       </c>
       <c r="M26">
-        <v>8.372550183929093</v>
+        <v>8.481439512531642</v>
       </c>
       <c r="N26">
-        <v>0.02140256133868061</v>
+        <v>0.01258131888874619</v>
       </c>
       <c r="O26">
-        <v>0.001810506001947919</v>
+        <v>0.0007584041540124611</v>
       </c>
       <c r="P26">
-        <v>0.01972196707210612</v>
+        <v>0.01130321099092093</v>
       </c>
       <c r="Q26">
-        <v>0.001653294074194931</v>
+        <v>0.000833024710563097</v>
       </c>
       <c r="R26">
-        <v>0.001148227513403315</v>
+        <v>0.0009352844211890137</v>
       </c>
       <c r="S26">
-        <v>2.503794395687853E-06</v>
+        <v>1.622182395989778E-06</v>
       </c>
       <c r="T26">
-        <v>0.003058967195864345</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.001034621802189222</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>12.97309073085189</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.0004014496755169115</v>
+        <v>3.658929174066703</v>
       </c>
       <c r="X26">
-        <v>1.606422593045504E-06</v>
+        <v>0.0002075288314983121</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.783601105487176E-06</v>
+        <v>5.373951260603606E-06</v>
       </c>
       <c r="C27">
-        <v>0.05632792922688484</v>
+        <v>0.04367373894237838</v>
       </c>
       <c r="D27">
-        <v>0.004440339950974837</v>
+        <v>0.003061213197711118</v>
       </c>
       <c r="E27">
-        <v>0.06001547102952561</v>
+        <v>0.04693004125855398</v>
       </c>
       <c r="F27">
-        <v>6.499604281590956</v>
+        <v>6.899604296730844</v>
       </c>
       <c r="K27">
-        <v>7.869187535528972</v>
+        <v>8.490368234039362</v>
       </c>
       <c r="L27">
-        <v>8.452283383874951</v>
+        <v>7.325352124248102</v>
       </c>
       <c r="M27">
-        <v>8.372426464295339</v>
+        <v>8.48100693280966</v>
       </c>
       <c r="N27">
-        <v>0.02166378874317038</v>
+        <v>0.01273895775187598</v>
       </c>
       <c r="O27">
-        <v>0.00183614659672745</v>
+        <v>0.0007697853791315678</v>
       </c>
       <c r="P27">
-        <v>0.01996288271207827</v>
+        <v>0.01144281347465904</v>
       </c>
       <c r="Q27">
-        <v>0.001678315276185419</v>
+        <v>0.0008453792110961197</v>
       </c>
       <c r="R27">
-        <v>0.00116350382965675</v>
+        <v>0.0009477332510395872</v>
       </c>
       <c r="S27">
-        <v>2.53615984856019E-06</v>
+        <v>1.643889235387219E-06</v>
       </c>
       <c r="T27">
-        <v>0.003085958467780014</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.001045650322487522</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>13.03761057460269</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.0004074163242647697</v>
+        <v>3.676288244844905</v>
       </c>
       <c r="X27">
-        <v>1.606540623223551E-06</v>
+        <v>0.0002107261946591511</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.76853570363518E-06</v>
+        <v>5.361713805204703E-06</v>
       </c>
       <c r="C28">
-        <v>0.05702911286574848</v>
+        <v>0.04422255685784686</v>
       </c>
       <c r="D28">
-        <v>0.004511156798557054</v>
+        <v>0.003108379632222589</v>
       </c>
       <c r="E28">
-        <v>0.060794810013146</v>
+        <v>0.04755169159463588</v>
       </c>
       <c r="F28">
-        <v>6.499587062800416</v>
+        <v>6.899587078813087</v>
       </c>
       <c r="K28">
-        <v>7.866800671466593</v>
+        <v>8.489846627593062</v>
       </c>
       <c r="L28">
-        <v>8.449272743947715</v>
+        <v>7.32603782755568</v>
       </c>
       <c r="M28">
-        <v>8.372294978991546</v>
+        <v>8.480564202457195</v>
       </c>
       <c r="N28">
-        <v>0.02193172985325744</v>
+        <v>0.01290070332448063</v>
       </c>
       <c r="O28">
-        <v>0.001862570526840795</v>
+        <v>0.0007815180161504844</v>
       </c>
       <c r="P28">
-        <v>0.02020997146121195</v>
+        <v>0.01158602204578827</v>
       </c>
       <c r="Q28">
-        <v>0.001704123302117269</v>
+        <v>0.0008581116706572545</v>
       </c>
       <c r="R28">
-        <v>0.001179192581951455</v>
+        <v>0.0009605182424153196</v>
       </c>
       <c r="S28">
-        <v>2.569516984737544E-06</v>
+        <v>1.666239394163151E-06</v>
       </c>
       <c r="T28">
-        <v>0.003113530199473155</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0.00105696464640733</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>13.10322246668455</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.0004135465932798561</v>
+        <v>3.693827112892713</v>
       </c>
       <c r="X28">
-        <v>1.60665996642667E-06</v>
+        <v>0.0002140095832470559</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.753083380531006E-06</v>
+        <v>5.349152015311313E-06</v>
       </c>
       <c r="C29">
-        <v>0.05774853692146344</v>
+        <v>0.04478576476504719</v>
       </c>
       <c r="D29">
-        <v>0.00458428087836585</v>
+        <v>0.003157034519757592</v>
       </c>
       <c r="E29">
-        <v>0.06159492780313511</v>
+        <v>0.04819025468980749</v>
       </c>
       <c r="F29">
-        <v>6.49956971237051</v>
+        <v>6.899569729285128</v>
       </c>
       <c r="K29">
-        <v>7.864391060437926</v>
+        <v>8.489320377238212</v>
       </c>
       <c r="L29">
-        <v>8.446222450228182</v>
+        <v>7.326746121538771</v>
       </c>
       <c r="M29">
-        <v>8.372171181042681</v>
+        <v>8.480114574131839</v>
       </c>
       <c r="N29">
-        <v>0.02220664984403027</v>
+        <v>0.01306671956158104</v>
       </c>
       <c r="O29">
-        <v>0.001889824137026092</v>
+        <v>0.0007936182824509566</v>
       </c>
       <c r="P29">
-        <v>0.02046347623051462</v>
+        <v>0.01173297972215993</v>
       </c>
       <c r="Q29">
-        <v>0.00173074823544371</v>
+        <v>0.0008712387379884233</v>
       </c>
       <c r="R29">
-        <v>0.001195310706129081</v>
+        <v>0.000973653201360815</v>
       </c>
       <c r="S29">
-        <v>2.603808780096202E-06</v>
+        <v>1.689248869223571E-06</v>
       </c>
       <c r="T29">
-        <v>0.003141702330337071</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0.001068584764893022</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>13.16996241933568</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.0004198480875336954</v>
+        <v>3.711576061312925</v>
       </c>
       <c r="X29">
-        <v>1.606780446978104E-06</v>
+        <v>0.0002173835294032333</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.737229142789523E-06</v>
+        <v>5.336252862896219E-06</v>
       </c>
       <c r="C30">
-        <v>0.05848692936650646</v>
+        <v>0.04536394157400955</v>
       </c>
       <c r="D30">
-        <v>0.004659825831932783</v>
+        <v>0.0032072490436717</v>
       </c>
       <c r="E30">
-        <v>0.06241666186373659</v>
+        <v>0.04884642742050976</v>
       </c>
       <c r="F30">
-        <v>6.499552226754499</v>
+        <v>6.899552244601558</v>
       </c>
       <c r="K30">
-        <v>7.861966768361619</v>
+        <v>8.48877892281465</v>
       </c>
       <c r="L30">
-        <v>8.443165422274721</v>
+        <v>7.327470674453481</v>
       </c>
       <c r="M30">
-        <v>8.372066480800786</v>
+        <v>8.479652536213569</v>
       </c>
       <c r="N30">
-        <v>0.02248882797884978</v>
+        <v>0.01323717930156896</v>
       </c>
       <c r="O30">
-        <v>0.001917954184840075</v>
+        <v>0.0008061051399790285</v>
       </c>
       <c r="P30">
-        <v>0.02072365300822394</v>
+        <v>0.01188383723582898</v>
       </c>
       <c r="Q30">
-        <v>0.001758224403568346</v>
+        <v>0.0008847815621838146</v>
       </c>
       <c r="R30">
-        <v>0.001211876079703373</v>
+        <v>0.000987152700700976</v>
       </c>
       <c r="S30">
-        <v>2.63901620871314E-06</v>
+        <v>1.712967729914455E-06</v>
       </c>
       <c r="T30">
-        <v>0.003170495629857127</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.001080529187170309</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>13.23787042009801</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.0004263282385352179</v>
+        <v>3.729524373585523</v>
       </c>
       <c r="X30">
-        <v>1.606901661581919E-06</v>
+        <v>0.0002208511598839008</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.720957239696879E-06</v>
+        <v>5.323002611233862E-06</v>
       </c>
       <c r="C31">
-        <v>0.05924505758530327</v>
+        <v>0.04595769780683121</v>
       </c>
       <c r="D31">
-        <v>0.004737912801268391</v>
+        <v>0.003259098970365372</v>
       </c>
       <c r="E31">
-        <v>0.06326089485307514</v>
+        <v>0.04952094518243064</v>
       </c>
       <c r="F31">
-        <v>6.499534602253727</v>
+        <v>6.899534621065172</v>
       </c>
       <c r="K31">
-        <v>7.859514486968298</v>
+        <v>8.488227729589312</v>
       </c>
       <c r="L31">
-        <v>8.440051368852115</v>
+        <v>7.328224161842131</v>
       </c>
       <c r="M31">
-        <v>8.371964036072356</v>
+        <v>8.479187501243494</v>
       </c>
       <c r="N31">
-        <v>0.02277855859566682</v>
+        <v>0.01341226485314065</v>
       </c>
       <c r="O31">
-        <v>0.001946992217515725</v>
+        <v>0.0008189960611975689</v>
       </c>
       <c r="P31">
-        <v>0.02099077172096557</v>
+        <v>0.01203875351292257</v>
       </c>
       <c r="Q31">
-        <v>0.001786601274941526</v>
+        <v>0.0008987569705400727</v>
       </c>
       <c r="R31">
-        <v>0.001228907587639917</v>
+        <v>0.001001032133559723</v>
       </c>
       <c r="S31">
-        <v>2.675284794807778E-06</v>
+        <v>1.737389007887458E-06</v>
       </c>
       <c r="T31">
-        <v>0.003199931776937223</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.001092803210778885</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>13.30698359896884</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.0004329937564189335</v>
+        <v>3.747686464724694</v>
       </c>
       <c r="X31">
-        <v>1.607024275651585E-06</v>
+        <v>0.000224416763267539</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.704251092549852E-06</v>
+        <v>5.309386776409825E-06</v>
       </c>
       <c r="C32">
-        <v>0.06002373108221806</v>
+        <v>0.0465676777902093</v>
       </c>
       <c r="D32">
-        <v>0.004818671071282875</v>
+        <v>0.00331266501616432</v>
       </c>
       <c r="E32">
-        <v>0.06412855765349333</v>
+        <v>0.05021458456682642</v>
       </c>
       <c r="F32">
-        <v>6.499516835008102</v>
+        <v>6.899516854817403</v>
       </c>
       <c r="K32">
-        <v>7.857036932473985</v>
+        <v>8.487661563502938</v>
       </c>
       <c r="L32">
-        <v>8.436888277401911</v>
+        <v>7.328990246991016</v>
       </c>
       <c r="M32">
-        <v>8.37186716726727</v>
+        <v>8.478702244392052</v>
       </c>
       <c r="N32">
-        <v>0.02307615240106898</v>
+        <v>0.01359216869302555</v>
       </c>
       <c r="O32">
-        <v>0.00197698572657674</v>
+        <v>0.0008323116506777158</v>
       </c>
       <c r="P32">
-        <v>0.02126511701305163</v>
+        <v>0.01219789632067089</v>
       </c>
       <c r="Q32">
-        <v>0.001815922723235086</v>
+        <v>0.0009131899473587728</v>
       </c>
       <c r="R32">
-        <v>0.001246425191966276</v>
+        <v>0.001015307772767607</v>
       </c>
       <c r="S32">
-        <v>2.712647149193658E-06</v>
+        <v>1.76261951304384E-06</v>
       </c>
       <c r="T32">
-        <v>0.003230033613596628</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0.001105423049247946</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>13.37734162297026</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.0004398525948740988</v>
+        <v>3.766060292856178</v>
       </c>
       <c r="X32">
-        <v>1.607148153376301E-06</v>
+        <v>0.0002280842424303959</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.687093265930048E-06</v>
+        <v>5.295390075450715E-06</v>
       </c>
       <c r="C33">
-        <v>0.06082380441570988</v>
+        <v>0.0471945620333114</v>
       </c>
       <c r="D33">
-        <v>0.004902238736909439</v>
+        <v>0.003368033255794688</v>
       </c>
       <c r="E33">
-        <v>0.06502063269753128</v>
+        <v>0.05092816625985645</v>
       </c>
       <c r="F33">
-        <v>6.499498920986615</v>
+        <v>6.899498941828893</v>
       </c>
       <c r="K33">
-        <v>7.854542549443237</v>
+        <v>8.487084423847529</v>
       </c>
       <c r="L33">
-        <v>8.433700926271069</v>
+        <v>7.329775591096214</v>
       </c>
       <c r="M33">
-        <v>8.371786166840064</v>
+        <v>8.478203292703325</v>
       </c>
       <c r="N33">
-        <v>0.02338193742533698</v>
+        <v>0.0137770941574074</v>
       </c>
       <c r="O33">
-        <v>0.002007989767831718</v>
+        <v>0.0008460737978602793</v>
       </c>
       <c r="P33">
-        <v>0.02154698939406346</v>
+        <v>0.01236144278984933</v>
       </c>
       <c r="Q33">
-        <v>0.001846232526319037</v>
+        <v>0.0009281026200292496</v>
       </c>
       <c r="R33">
-        <v>0.001264450011456378</v>
+        <v>0.001029996832959702</v>
       </c>
       <c r="S33">
-        <v>2.75108859601369E-06</v>
+        <v>1.788668179699428E-06</v>
       </c>
       <c r="T33">
-        <v>0.003260825071050957</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0.001118409127123309</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>13.44898814350634</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0.0004469147710593063</v>
+        <v>3.784658648865445</v>
       </c>
       <c r="X33">
-        <v>1.607272872527838E-06</v>
+        <v>0.0002318582766999959</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.669465376365652E-06</v>
+        <v>5.280996374749608E-06</v>
       </c>
       <c r="C34">
-        <v>0.0616461803815746</v>
+        <v>0.04783906980945135</v>
       </c>
       <c r="D34">
-        <v>0.004988763491361267</v>
+        <v>0.003425295569102814</v>
       </c>
       <c r="E34">
-        <v>0.06593815750964611</v>
+        <v>0.05166255819011045</v>
       </c>
       <c r="F34">
-        <v>6.499480855977115</v>
+        <v>6.899480877889199</v>
       </c>
       <c r="K34">
-        <v>7.852018168614334</v>
+        <v>8.486496481662265</v>
       </c>
       <c r="L34">
-        <v>8.430464660944736</v>
+        <v>7.330594611722513</v>
       </c>
       <c r="M34">
-        <v>8.371711377168317</v>
+        <v>8.477702837797858</v>
       </c>
       <c r="N34">
-        <v>0.02369626018500618</v>
+        <v>0.01396725622151839</v>
       </c>
       <c r="O34">
-        <v>0.002040048658262541</v>
+        <v>0.0008603028509196962</v>
       </c>
       <c r="P34">
-        <v>0.02183670640682442</v>
+        <v>0.01252958014528786</v>
       </c>
       <c r="Q34">
-        <v>0.001877585179349754</v>
+        <v>0.0009435141864698988</v>
       </c>
       <c r="R34">
-        <v>0.001283004407380795</v>
+        <v>0.00104511754126529</v>
       </c>
       <c r="S34">
-        <v>2.790732645237709E-06</v>
+        <v>1.815522226013429E-06</v>
       </c>
       <c r="T34">
-        <v>0.003292331187873422</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0.001131773115832785</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>13.52196647630715</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.0004541875478458501</v>
+        <v>3.803488395849588</v>
       </c>
       <c r="X34">
-        <v>1.607399091569283E-06</v>
+        <v>0.0002357436290663408</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.651348051669728E-06</v>
+        <v>5.266188618950669E-06</v>
       </c>
       <c r="C35">
-        <v>0.06249181346948823</v>
+        <v>0.04850196196229238</v>
       </c>
       <c r="D35">
-        <v>0.005078403445769712</v>
+        <v>0.003484550141588315</v>
       </c>
       <c r="E35">
-        <v>0.0668822285977158</v>
+        <v>0.05241867893570921</v>
       </c>
       <c r="F35">
-        <v>6.49946263557532</v>
+        <v>6.899462658595879</v>
       </c>
       <c r="K35">
-        <v>7.849475969811153</v>
+        <v>8.485883528469634</v>
       </c>
       <c r="L35">
-        <v>8.42720578875646</v>
+        <v>7.331423067930696</v>
       </c>
       <c r="M35">
-        <v>8.371654984142248</v>
+        <v>8.477174610865641</v>
       </c>
       <c r="N35">
-        <v>0.02401948722271877</v>
+        <v>0.01416288239122882</v>
       </c>
       <c r="O35">
-        <v>0.002073225664153164</v>
+        <v>0.0008750257042105871</v>
       </c>
       <c r="P35">
-        <v>0.02213460373857777</v>
+        <v>0.01270250650288216</v>
       </c>
       <c r="Q35">
-        <v>0.001910030310149678</v>
+        <v>0.0009594581741520169</v>
       </c>
       <c r="R35">
-        <v>0.001302112074167893</v>
+        <v>0.001060689213191249</v>
       </c>
       <c r="S35">
-        <v>2.831554225542617E-06</v>
+        <v>1.843332416854964E-06</v>
       </c>
       <c r="T35">
-        <v>0.003324578323277014</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>0.001145538455853896</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>13.59632450067956</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.000461681708201636</v>
+        <v>3.822534095168479</v>
       </c>
       <c r="X35">
-        <v>1.607526201509442E-06</v>
+        <v>0.0002397443465479358</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.632720872999828E-06</v>
+        <v>5.250948775316377E-06</v>
       </c>
       <c r="C36">
-        <v>0.06336171362136275</v>
+        <v>0.04918404395957577</v>
       </c>
       <c r="D36">
-        <v>0.00517132804675037</v>
+        <v>0.003545902004683269</v>
       </c>
       <c r="E36">
-        <v>0.06785400565875946</v>
+        <v>0.05319750144170595</v>
       </c>
       <c r="F36">
-        <v>6.4994442551726</v>
+        <v>6.899444279342281</v>
       </c>
       <c r="K36">
-        <v>7.846900734026086</v>
+        <v>8.485266360822138</v>
       </c>
       <c r="L36">
-        <v>8.423861154889911</v>
+        <v>7.332290942694108</v>
       </c>
       <c r="M36">
-        <v>8.371595023617669</v>
+        <v>8.476647726150778</v>
       </c>
       <c r="N36">
-        <v>0.02435200633724249</v>
+        <v>0.01436421355315334</v>
       </c>
       <c r="O36">
-        <v>0.00210756518768494</v>
+        <v>0.0008902664101525639</v>
       </c>
       <c r="P36">
-        <v>0.02244103666931153</v>
+        <v>0.01288043147755989</v>
       </c>
       <c r="Q36">
-        <v>0.001943637128848933</v>
+        <v>0.0009759545077925849</v>
       </c>
       <c r="R36">
-        <v>0.001321798142651869</v>
+        <v>0.001076732332596922</v>
       </c>
       <c r="S36">
-        <v>2.873770093654283E-06</v>
+        <v>1.872020857773673E-06</v>
       </c>
       <c r="T36">
-        <v>0.00335759407884403</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.001159712167779432</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>13.67210743445322</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.0004694061421727145</v>
+        <v>3.841836078392365</v>
       </c>
       <c r="X36">
-        <v>1.607654963298696E-06</v>
+        <v>0.0002438670499777051</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.613562281666836E-06</v>
+        <v>5.235257762566692E-06</v>
       </c>
       <c r="C37">
-        <v>0.06425695032251064</v>
+        <v>0.04988616922042027</v>
       </c>
       <c r="D37">
-        <v>0.005267719121836833</v>
+        <v>0.003609463638697306</v>
       </c>
       <c r="E37">
-        <v>0.06885471611535218</v>
+        <v>0.05400005706054344</v>
       </c>
       <c r="F37">
-        <v>6.499425709943291</v>
+        <v>6.899425735304816</v>
       </c>
       <c r="K37">
-        <v>7.844303124495018</v>
+        <v>8.484633727121935</v>
       </c>
       <c r="L37">
-        <v>8.420507406273082</v>
+        <v>7.333185181882556</v>
       </c>
       <c r="M37">
-        <v>8.371558641300897</v>
+        <v>8.476106939715811</v>
       </c>
       <c r="N37">
-        <v>0.02469422850877415</v>
+        <v>0.01457150504766104</v>
       </c>
       <c r="O37">
-        <v>0.002143147833716498</v>
+        <v>0.0009060529580975468</v>
       </c>
       <c r="P37">
-        <v>0.02275638127762634</v>
+        <v>0.01306357727709477</v>
       </c>
       <c r="Q37">
-        <v>0.001978454936627681</v>
+        <v>0.0009930356671754004</v>
       </c>
       <c r="R37">
-        <v>0.001342089286845072</v>
+        <v>0.001093268645085217</v>
       </c>
       <c r="S37">
-        <v>2.91726065194746E-06</v>
+        <v>1.901699758134574E-06</v>
       </c>
       <c r="T37">
-        <v>0.003391407646706562</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0.001174328322959756</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>13.74936873163477</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.0004773724268637629</v>
+        <v>3.861384580412874</v>
       </c>
       <c r="X37">
-        <v>1.607784843775249E-06</v>
+        <v>0.0002481167038166705</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.59384952790144E-06</v>
+        <v>5.21909537293177E-06</v>
       </c>
       <c r="C38">
-        <v>0.06517865706002116</v>
+        <v>0.05060924274513469</v>
       </c>
       <c r="D38">
-        <v>0.005367771992208024</v>
+        <v>0.003675355640358686</v>
       </c>
       <c r="E38">
-        <v>0.06988566009343095</v>
+        <v>0.05482743995095791</v>
       </c>
       <c r="F38">
-        <v>6.499406994830473</v>
+        <v>6.899407021428821</v>
       </c>
       <c r="K38">
-        <v>7.841674452291445</v>
+        <v>8.483983180260292</v>
       </c>
       <c r="L38">
-        <v>8.4170722673455</v>
+        <v>7.334103949028192</v>
       </c>
       <c r="M38">
-        <v>8.371522286141792</v>
+        <v>8.475550433675394</v>
       </c>
       <c r="N38">
-        <v>0.02504658914432192</v>
+        <v>0.01478502773656047</v>
       </c>
       <c r="O38">
-        <v>0.002180026311406155</v>
+        <v>0.0009224160755154227</v>
       </c>
       <c r="P38">
-        <v>0.02308103637670444</v>
+        <v>0.01325217948974976</v>
       </c>
       <c r="Q38">
-        <v>0.002014563627771177</v>
+        <v>0.00101073459830471</v>
       </c>
       <c r="R38">
-        <v>0.001363013849754339</v>
+        <v>0.001110321253605952</v>
       </c>
       <c r="S38">
-        <v>2.96226548612735E-06</v>
+        <v>1.932425843456782E-06</v>
       </c>
       <c r="T38">
-        <v>0.003426049511140106</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>0.001189395195800582</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>13.82815920073551</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.0004855915516644735</v>
+        <v>3.881182670944156</v>
       </c>
       <c r="X38">
-        <v>1.607916277385428E-06</v>
+        <v>0.0002524990105058278</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.573558570399123E-06</v>
+        <v>5.202440195273261E-06</v>
       </c>
       <c r="C39">
-        <v>0.06612803618808169</v>
+        <v>0.05135422508013113</v>
       </c>
       <c r="D39">
-        <v>0.005471696752402183</v>
+        <v>0.003743707458152225</v>
       </c>
       <c r="E39">
-        <v>0.07094821579105748</v>
+        <v>0.05568081188384672</v>
       </c>
       <c r="F39">
-        <v>6.499388104530839</v>
+        <v>6.899388132413373</v>
       </c>
       <c r="K39">
-        <v>7.83902342253893</v>
+        <v>8.48331417107009</v>
       </c>
       <c r="L39">
-        <v>8.413630522472344</v>
+        <v>7.335051997573083</v>
       </c>
       <c r="M39">
-        <v>8.371512079945868</v>
+        <v>8.474973707279766</v>
       </c>
       <c r="N39">
-        <v>0.02540955045913011</v>
+        <v>0.01500506919149769</v>
       </c>
       <c r="O39">
-        <v>0.002218290141259486</v>
+        <v>0.0009393870880134252</v>
       </c>
       <c r="P39">
-        <v>0.02341542483303671</v>
+        <v>0.01344648813882031</v>
       </c>
       <c r="Q39">
-        <v>0.002052021976391915</v>
+        <v>0.001029085346762957</v>
       </c>
       <c r="R39">
-        <v>0.001384601970139549</v>
+        <v>0.0011279147270625</v>
       </c>
       <c r="S39">
-        <v>3.008683576324393E-06</v>
+        <v>1.964275983636844E-06</v>
       </c>
       <c r="T39">
-        <v>0.003461551960589939</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0.001204949176420152</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>13.90853771942201</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.000494076375881847</v>
+        <v>3.901239360118652</v>
       </c>
       <c r="X39">
-        <v>1.608048828873053E-06</v>
+        <v>0.0002570203871722869</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.552663980355327E-06</v>
+        <v>5.185269509161491E-06</v>
       </c>
       <c r="C40">
-        <v>0.06710636424349588</v>
+        <v>0.05212213665467919</v>
       </c>
       <c r="D40">
-        <v>0.005579719684132308</v>
+        <v>0.003814658222687956</v>
       </c>
       <c r="E40">
-        <v>0.07204384534197837</v>
+        <v>0.05656140747595739</v>
       </c>
       <c r="F40">
-        <v>6.499369033479139</v>
+        <v>6.899369062695767</v>
       </c>
       <c r="K40">
-        <v>7.836335475725762</v>
+        <v>8.482634999462402</v>
       </c>
       <c r="L40">
-        <v>8.410089866649486</v>
+        <v>7.336042688407266</v>
       </c>
       <c r="M40">
-        <v>8.371497668707947</v>
+        <v>8.474397601686185</v>
       </c>
       <c r="N40">
-        <v>0.02578360304490222</v>
+        <v>0.01523193503187647</v>
       </c>
       <c r="O40">
-        <v>0.00225799717357369</v>
+        <v>0.0009569988711163941</v>
       </c>
       <c r="P40">
-        <v>0.02375999584685357</v>
+        <v>0.01364676882901479</v>
       </c>
       <c r="Q40">
-        <v>0.002090923582675382</v>
+        <v>0.001048118370401423</v>
       </c>
       <c r="R40">
-        <v>0.001406885732826053</v>
+        <v>0.001146075218208933</v>
       </c>
       <c r="S40">
-        <v>3.056810282352019E-06</v>
+        <v>1.997210999732044E-06</v>
       </c>
       <c r="T40">
-        <v>0.003497948779689452</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0.001220997709280614</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>13.99055980109659</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.0005028384118897666</v>
+        <v>3.921574798523928</v>
       </c>
       <c r="X40">
-        <v>1.608183226213712E-06</v>
+        <v>0.0002616880435703504</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.531138873771708E-06</v>
+        <v>5.167559206882729E-06</v>
       </c>
       <c r="C41">
-        <v>0.06811499776086249</v>
+        <v>0.05291406253061347</v>
       </c>
       <c r="D41">
-        <v>0.005692084794342815</v>
+        <v>0.003888357646809627</v>
       </c>
       <c r="E41">
-        <v>0.07317410123717789</v>
+        <v>0.05747053993327352</v>
       </c>
       <c r="F41">
-        <v>6.499349775829224</v>
+        <v>6.899349806432604</v>
       </c>
       <c r="K41">
-        <v>7.833625049067695</v>
+        <v>8.481934583519998</v>
       </c>
       <c r="L41">
-        <v>8.406540190773139</v>
+        <v>7.337050764829645</v>
       </c>
       <c r="M41">
-        <v>8.371510535542669</v>
+        <v>8.473792536828929</v>
       </c>
       <c r="N41">
-        <v>0.026169268714924</v>
+        <v>0.01546595037877418</v>
       </c>
       <c r="O41">
-        <v>0.002299253216531765</v>
+        <v>0.000975291239352514</v>
       </c>
       <c r="P41">
-        <v>0.02411522653970895</v>
+        <v>0.01385330408243468</v>
       </c>
       <c r="Q41">
-        <v>0.00213133648325209</v>
+        <v>0.001067881853820853</v>
       </c>
       <c r="R41">
-        <v>0.001429899321720212</v>
+        <v>0.001164830595376297</v>
       </c>
       <c r="S41">
-        <v>3.106517609009396E-06</v>
+        <v>2.031432901422068E-06</v>
       </c>
       <c r="T41">
-        <v>0.003535275846417467</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>0.001237583491374816</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>14.07429036351049</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0.0005118929970374217</v>
+        <v>3.94218263345094</v>
       </c>
       <c r="X41">
-        <v>1.608318747546615E-06</v>
+        <v>0.0002665085491894274</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.50895477819439E-06</v>
+        <v>5.149283668146093E-06</v>
       </c>
       <c r="C42">
-        <v>0.06915537964363783</v>
+        <v>0.05373115761201019</v>
       </c>
       <c r="D42">
-        <v>0.00580905559692272</v>
+        <v>0.003964967054452119</v>
       </c>
       <c r="E42">
-        <v>0.07434063328018167</v>
+        <v>0.05840960731639246</v>
       </c>
       <c r="F42">
-        <v>6.49933032543595</v>
+        <v>6.899330357481678</v>
       </c>
       <c r="K42">
-        <v>7.830883055489466</v>
+        <v>8.481216657652803</v>
       </c>
       <c r="L42">
-        <v>8.402932831849862</v>
+        <v>7.338104789689366</v>
       </c>
       <c r="M42">
-        <v>8.371536683647786</v>
+        <v>8.473181609304648</v>
       </c>
       <c r="N42">
-        <v>0.02656710230656387</v>
+        <v>0.0157074613644312</v>
       </c>
       <c r="O42">
-        <v>0.002342139438263094</v>
+        <v>0.0009943008472725293</v>
       </c>
       <c r="P42">
-        <v>0.02448162470731656</v>
+        <v>0.01406639445291158</v>
       </c>
       <c r="Q42">
-        <v>0.002173358412173037</v>
+        <v>0.001088409640451307</v>
       </c>
       <c r="R42">
-        <v>0.001453679201788732</v>
+        <v>0.001184210581417545</v>
       </c>
       <c r="S42">
-        <v>3.158001455117515E-06</v>
+        <v>2.06689873860777E-06</v>
       </c>
       <c r="T42">
-        <v>0.003573570719001511</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>0.001254726087201735</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>14.15979467678545</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0.0005212541761413458</v>
+        <v>3.9630767005754</v>
       </c>
       <c r="X42">
-        <v>1.608455847225527E-06</v>
+        <v>0.0002714897282739527</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.486081527302701E-06</v>
+        <v>5.130415659412536E-06</v>
       </c>
       <c r="C43">
-        <v>0.07022904615290419</v>
+        <v>0.05457465236722304</v>
       </c>
       <c r="D43">
-        <v>0.005930917066352316</v>
+        <v>0.004044660505838531</v>
       </c>
       <c r="E43">
-        <v>0.07554519621686895</v>
+        <v>0.05938009942893571</v>
       </c>
       <c r="F43">
-        <v>6.49931067583332</v>
+        <v>6.899310709380117</v>
       </c>
       <c r="K43">
-        <v>7.828105115623186</v>
+        <v>8.480481367428453</v>
       </c>
       <c r="L43">
-        <v>8.399244534304648</v>
+        <v>7.339188787620214</v>
       </c>
       <c r="M43">
-        <v>8.371567280451007</v>
+        <v>8.472545310061241</v>
       </c>
       <c r="N43">
-        <v>0.02697769489755202</v>
+        <v>0.01595683696641694</v>
       </c>
       <c r="O43">
-        <v>0.002386748042047735</v>
+        <v>0.001014073197313774</v>
       </c>
       <c r="P43">
-        <v>0.02485973091570883</v>
+        <v>0.01428636029719057</v>
       </c>
       <c r="Q43">
-        <v>0.002217092417910104</v>
+        <v>0.001109753930325443</v>
       </c>
       <c r="R43">
-        <v>0.001478264306879132</v>
+        <v>0.001204246915022273</v>
       </c>
       <c r="S43">
-        <v>3.211435279418184E-06</v>
+        <v>2.103774403992054E-06</v>
       </c>
       <c r="T43">
-        <v>0.003612873170387947</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0.001272449910772864</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>14.24713993923909</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>0.0005309368984794123</v>
+        <v>3.984267980537627</v>
       </c>
       <c r="X43">
-        <v>1.608594744218841E-06</v>
+        <v>0.0002766398600521665</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.462487150564397E-06</v>
+        <v>5.110926191254888E-06</v>
       </c>
       <c r="C44">
-        <v>0.07133763458543094</v>
+        <v>0.0554458591234538</v>
       </c>
       <c r="D44">
-        <v>0.006057977824888342</v>
+        <v>0.00412762607803837</v>
       </c>
       <c r="E44">
-        <v>0.07678965810214707</v>
+        <v>0.06038360535791305</v>
       </c>
       <c r="F44">
-        <v>6.499290820212558</v>
+        <v>6.899290855322541</v>
       </c>
       <c r="K44">
-        <v>7.825300233911406</v>
+        <v>8.47972615560646</v>
       </c>
       <c r="L44">
-        <v>8.395523064277697</v>
+        <v>7.340325230781499</v>
       </c>
       <c r="M44">
-        <v>8.371622292111763</v>
+        <v>8.471905532400871</v>
       </c>
       <c r="N44">
-        <v>0.02740167673988829</v>
+        <v>0.01621447082450493</v>
       </c>
       <c r="O44">
-        <v>0.00243319811512195</v>
+        <v>0.001034652185412497</v>
       </c>
       <c r="P44">
-        <v>0.02525012123463639</v>
+        <v>0.01451354316558479</v>
       </c>
       <c r="Q44">
-        <v>0.002262632813455062</v>
+        <v>0.001131956216265019</v>
       </c>
       <c r="R44">
-        <v>0.001503696252941196</v>
+        <v>0.001224973520895002</v>
       </c>
       <c r="S44">
-        <v>3.26678471404922E-06</v>
+        <v>2.142032193369944E-06</v>
       </c>
       <c r="T44">
-        <v>0.003653225295553724</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>0.00129079735683438</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>14.33640091196857</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.000540959113596485</v>
+        <v>4.005763634744092</v>
       </c>
       <c r="X44">
-        <v>1.60873498830443E-06</v>
+        <v>0.0002819675310704224</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.438137732641834E-06</v>
+        <v>5.090784392337217E-06</v>
       </c>
       <c r="C45">
-        <v>0.07248289172158082</v>
+        <v>0.05634617900144355</v>
       </c>
       <c r="D45">
-        <v>0.0061905726232951</v>
+        <v>0.00421406727999462</v>
       </c>
       <c r="E45">
-        <v>0.07807600942629229</v>
+        <v>0.06142182177934281</v>
       </c>
       <c r="F45">
-        <v>6.499270751396425</v>
+        <v>6.899270788135353</v>
       </c>
       <c r="K45">
-        <v>7.822455991301805</v>
+        <v>8.47894733101371</v>
       </c>
       <c r="L45">
-        <v>8.391723885178418</v>
+        <v>7.34148296661702</v>
       </c>
       <c r="M45">
-        <v>8.371685923148293</v>
+        <v>8.471232108430113</v>
       </c>
       <c r="N45">
-        <v>0.02783972022453332</v>
+        <v>0.0164807834322083</v>
       </c>
       <c r="O45">
-        <v>0.00248159513637195</v>
+        <v>0.001056090409290328</v>
       </c>
       <c r="P45">
-        <v>0.02565341050518343</v>
+        <v>0.01474830784890619</v>
       </c>
       <c r="Q45">
-        <v>0.002310104610419549</v>
+        <v>0.001155078596986612</v>
       </c>
       <c r="R45">
-        <v>0.001530019576945181</v>
+        <v>0.001246426704907311</v>
       </c>
       <c r="S45">
-        <v>3.324295287150619E-06</v>
+        <v>2.181906852175567E-06</v>
       </c>
       <c r="T45">
-        <v>0.003694671399741782</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>0.001309793451612583</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>14.42765352875437</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0.0005513376976878938</v>
+        <v>4.027568416705961</v>
       </c>
       <c r="X45">
-        <v>1.60887720043491E-06</v>
+        <v>0.0002874818765650105</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.412997273662091E-06</v>
+        <v>5.069957343857882E-06</v>
       </c>
       <c r="C46">
-        <v>0.07366668313405021</v>
+        <v>0.057277109567898</v>
       </c>
       <c r="D46">
-        <v>0.006329065122210258</v>
+        <v>0.004304204661417312</v>
       </c>
       <c r="E46">
-        <v>0.07940637315241357</v>
+        <v>0.06249656208173743</v>
       </c>
       <c r="F46">
-        <v>6.499250461813004</v>
+        <v>6.899250500250584</v>
       </c>
       <c r="K46">
-        <v>7.81957507688997</v>
+        <v>8.47815750632717</v>
       </c>
       <c r="L46">
-        <v>8.387853956533567</v>
+        <v>7.342710593927944</v>
       </c>
       <c r="M46">
-        <v>8.371762138651809</v>
+        <v>8.470558341618656</v>
       </c>
       <c r="N46">
-        <v>0.02829254388682192</v>
+        <v>0.01675622437904612</v>
       </c>
       <c r="O46">
-        <v>0.002532065455908002</v>
+        <v>0.001078439646307138</v>
       </c>
       <c r="P46">
-        <v>0.02607025525330421</v>
+        <v>0.01499104408554761</v>
       </c>
       <c r="Q46">
-        <v>0.002359629247849479</v>
+        <v>0.001179168128944684</v>
       </c>
       <c r="R46">
-        <v>0.001557281992689074</v>
+        <v>0.001268645362015438</v>
       </c>
       <c r="S46">
-        <v>3.384073689834463E-06</v>
+        <v>2.223323348752787E-06</v>
       </c>
       <c r="T46">
-        <v>0.003737258505958376</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>0.001329476609426396</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>14.52097893421923</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>0.0005620923864250256</v>
+        <v>4.049713312377271</v>
       </c>
       <c r="X46">
-        <v>1.609021246155501E-06</v>
+        <v>0.0002931936892151509</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.387027515930082E-06</v>
+        <v>5.048409923700461E-06</v>
       </c>
       <c r="C47">
-        <v>0.07489100346153821</v>
+        <v>0.05824025329347038</v>
       </c>
       <c r="D47">
-        <v>0.006473851057814049</v>
+        <v>0.00439827760567508</v>
       </c>
       <c r="E47">
-        <v>0.0807830156958656</v>
+        <v>0.06360976643682066</v>
       </c>
       <c r="F47">
-        <v>6.499229943465267</v>
+        <v>6.899229983675407</v>
       </c>
       <c r="K47">
-        <v>7.816664686786705</v>
+        <v>8.477345478312966</v>
       </c>
       <c r="L47">
-        <v>8.383952521567508</v>
+        <v>7.34397392393568</v>
       </c>
       <c r="M47">
-        <v>8.371866727860942</v>
+        <v>8.469861341494795</v>
       </c>
       <c r="N47">
-        <v>0.02876091622192944</v>
+        <v>0.01704127501055047</v>
       </c>
       <c r="O47">
-        <v>0.002584756009918574</v>
+        <v>0.001101760640938143</v>
       </c>
       <c r="P47">
-        <v>0.02650135754431248</v>
+        <v>0.01524216910294039</v>
       </c>
       <c r="Q47">
-        <v>0.00241133300892268</v>
+        <v>0.001204293859815757</v>
       </c>
       <c r="R47">
-        <v>0.001585534682125424</v>
+        <v>0.001291671217263924</v>
       </c>
       <c r="S47">
-        <v>3.44614006996856E-06</v>
+        <v>2.266494463578823E-06</v>
       </c>
       <c r="T47">
-        <v>0.003781036358622593</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>0.001349894980630868</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>14.61646588290184</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0.0005732444918023025</v>
+        <v>4.072194268723905</v>
       </c>
       <c r="X47">
-        <v>1.609166765660665E-06</v>
+        <v>0.0002991131323641817</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.308951516574185E-06</v>
+        <v>5.880209362102332E-06</v>
       </c>
       <c r="C48">
-        <v>0.07615798776531087</v>
+        <v>0.05923732691731844</v>
       </c>
       <c r="D48">
-        <v>0.005378297168586668</v>
+        <v>0.003756298931132426</v>
       </c>
       <c r="E48">
-        <v>0.08008556799473748</v>
+        <v>0.06265716330899879</v>
       </c>
       <c r="F48">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K48">
-        <v>7.81371144639578</v>
+        <v>8.476505862578676</v>
       </c>
       <c r="L48">
-        <v>8.385931230002104</v>
+        <v>7.286887809471104</v>
       </c>
       <c r="M48">
-        <v>8.35729617591349</v>
+        <v>8.470961298156261</v>
       </c>
       <c r="N48">
-        <v>0.02924565992955928</v>
+        <v>0.01733645120258033</v>
       </c>
       <c r="O48">
-        <v>0.002200137883405393</v>
+        <v>0.0009401106722803779</v>
       </c>
       <c r="P48">
-        <v>0.02694746910978266</v>
+        <v>0.01550212975559085</v>
       </c>
       <c r="Q48">
-        <v>0.002045715492234081</v>
+        <v>0.001040953822803868</v>
       </c>
       <c r="R48">
-        <v>0.001614832618089414</v>
+        <v>0.001315549082500967</v>
       </c>
       <c r="S48">
-        <v>3.028977228721345E-06</v>
+        <v>1.936139262871124E-06</v>
       </c>
       <c r="T48">
-        <v>0.00382605749525207</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>0.001199024521883817</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>14.66291411041699</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>0.0005848172681394646</v>
+        <v>4.09501551517679</v>
       </c>
       <c r="X48">
-        <v>1.609314427680211E-06</v>
+        <v>0.0003052522656304235</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.281039046917861E-06</v>
+        <v>5.857641582716092E-06</v>
       </c>
       <c r="C49">
-        <v>0.07749345362562643</v>
+        <v>0.0602841387661144</v>
       </c>
       <c r="D49">
-        <v>0.005502560291145453</v>
+        <v>0.003839177408212583</v>
       </c>
       <c r="E49">
-        <v>0.08153405101735912</v>
+        <v>0.06380857802093319</v>
       </c>
       <c r="F49">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K49">
-        <v>7.810878489226096</v>
+        <v>8.475536773370115</v>
       </c>
       <c r="L49">
-        <v>8.373999460533536</v>
+        <v>7.28907503588129</v>
       </c>
       <c r="M49">
-        <v>8.354688240940542</v>
+        <v>8.469934427341169</v>
       </c>
       <c r="N49">
-        <v>0.02975595279835463</v>
+        <v>0.01764581611824636</v>
       </c>
       <c r="O49">
-        <v>0.002246092004312726</v>
+        <v>0.0009615881275501669</v>
       </c>
       <c r="P49">
-        <v>0.02741731351766094</v>
+        <v>0.01577498213168117</v>
       </c>
       <c r="Q49">
-        <v>0.002094001236803117</v>
+        <v>0.001064140455805102</v>
       </c>
       <c r="R49">
-        <v>0.001645244007539616</v>
+        <v>0.001340334232373384</v>
       </c>
       <c r="S49">
-        <v>3.120094409746188E-06</v>
+        <v>1.974886086663776E-06</v>
       </c>
       <c r="T49">
-        <v>0.003875624155126943</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>0.001216654643145059</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>14.71257315405634</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0.0005968362641068177</v>
+        <v>4.11791180259241</v>
       </c>
       <c r="X49">
-        <v>1.609456075538695E-06</v>
+        <v>0.0003116166047074443</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.252129172599752E-06</v>
+        <v>5.834242679824852E-06</v>
       </c>
       <c r="C50">
-        <v>0.07887789388205875</v>
+        <v>0.06136961879222791</v>
       </c>
       <c r="D50">
-        <v>0.005632707841898173</v>
+        <v>0.003925817309547317</v>
       </c>
       <c r="E50">
-        <v>0.0830364471856051</v>
+        <v>0.06500360637769703</v>
       </c>
       <c r="F50">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K50">
-        <v>7.808029470671177</v>
+        <v>8.474535067626849</v>
       </c>
       <c r="L50">
-        <v>8.369619506467657</v>
+        <v>7.290133649669813</v>
       </c>
       <c r="M50">
-        <v>8.354689996810647</v>
+        <v>8.469062553177469</v>
       </c>
       <c r="N50">
-        <v>0.03028498858285544</v>
+        <v>0.01796666665652898</v>
       </c>
       <c r="O50">
-        <v>0.002294160833426757</v>
+        <v>0.0009830478072856991</v>
       </c>
       <c r="P50">
-        <v>0.02790430029229282</v>
+        <v>0.01605788293314032</v>
       </c>
       <c r="Q50">
-        <v>0.002141276388920983</v>
+        <v>0.001087564330142461</v>
       </c>
       <c r="R50">
-        <v>0.001676823313561344</v>
+        <v>0.001366071912109667</v>
       </c>
       <c r="S50">
-        <v>3.179005236855117E-06</v>
+        <v>2.014467616787193E-06</v>
       </c>
       <c r="T50">
-        <v>0.003926758184203518</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>0.001236620377286077</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>14.76591427552774</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0.0006093258828244655</v>
+        <v>4.141165774017914</v>
       </c>
       <c r="X50">
-        <v>1.609598526466441E-06</v>
+        <v>0.0003182253204012429</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.222168092225323E-06</v>
+        <v>5.809966083669553E-06</v>
       </c>
       <c r="C51">
-        <v>0.08031407400049327</v>
+        <v>0.06249596784090791</v>
       </c>
       <c r="D51">
-        <v>0.005769163557124783</v>
+        <v>0.004016478991831544</v>
       </c>
       <c r="E51">
-        <v>0.08459580365876318</v>
+        <v>0.06624476357399836</v>
       </c>
       <c r="F51">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K51">
-        <v>7.805140829674457</v>
+        <v>8.473502664516195</v>
       </c>
       <c r="L51">
-        <v>8.365193218180421</v>
+        <v>7.291230853683456</v>
       </c>
       <c r="M51">
-        <v>8.354695723560525</v>
+        <v>8.468150897141182</v>
       </c>
       <c r="N51">
-        <v>0.03083382834264816</v>
+        <v>0.01829967879082787</v>
       </c>
       <c r="O51">
-        <v>0.002344503380664525</v>
+        <v>0.001005505088196939</v>
       </c>
       <c r="P51">
-        <v>0.02840945762373149</v>
+        <v>0.01635141859202263</v>
       </c>
       <c r="Q51">
-        <v>0.002190789711679355</v>
+        <v>0.001112065904007446</v>
       </c>
       <c r="R51">
-        <v>0.00170963986862653</v>
+        <v>0.001392818136511488</v>
       </c>
       <c r="S51">
-        <v>3.24057335651861E-06</v>
+        <v>2.055875559530518E-06</v>
       </c>
       <c r="T51">
-        <v>0.003979505984339154</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>0.001257382213583236</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>14.82293963390748</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0.0006223117338111144</v>
+        <v>4.164794390209387</v>
       </c>
       <c r="X51">
-        <v>1.609742958516277E-06</v>
+        <v>0.0003250928590598947</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.191098130419627E-06</v>
+        <v>5.784761701745186E-06</v>
       </c>
       <c r="C52">
-        <v>0.08180497220936064</v>
+        <v>0.06366555761788945</v>
       </c>
       <c r="D52">
-        <v>0.005912392413339369</v>
+        <v>0.004111447228151396</v>
       </c>
       <c r="E52">
-        <v>0.08621539922441521</v>
+        <v>0.06753476046590236</v>
       </c>
       <c r="F52">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K52">
-        <v>7.80221250476143</v>
+        <v>8.472442384304982</v>
       </c>
       <c r="L52">
-        <v>8.36070042919274</v>
+        <v>7.292390671580255</v>
       </c>
       <c r="M52">
-        <v>8.35472047373892</v>
+        <v>8.467222980645298</v>
       </c>
       <c r="N52">
-        <v>0.03140361484188783</v>
+        <v>0.01864556226488049</v>
       </c>
       <c r="O52">
-        <v>0.002397250584937811</v>
+        <v>0.001029022826368986</v>
       </c>
       <c r="P52">
-        <v>0.02893383098197253</v>
+        <v>0.01665620564578294</v>
       </c>
       <c r="Q52">
-        <v>0.002242680734442381</v>
+        <v>0.001137708013901705</v>
       </c>
       <c r="R52">
-        <v>0.00174376785453193</v>
+        <v>0.001420633381730527</v>
       </c>
       <c r="S52">
-        <v>3.304790286500651E-06</v>
+        <v>2.099115641032162E-06</v>
       </c>
       <c r="T52">
-        <v>0.004033948459754273</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>0.001279000264293147</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>14.88366773330167</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>0.0006358236215562591</v>
+        <v>4.188817276632349</v>
       </c>
       <c r="X52">
-        <v>1.609889374761928E-06</v>
+        <v>0.0003322347579022549</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.158183504430297E-06</v>
+        <v>5.757896627970809E-06</v>
       </c>
       <c r="C53">
-        <v>0.08335380036846311</v>
+        <v>0.06488094762584329</v>
       </c>
       <c r="D53">
-        <v>0.006063598214440752</v>
+        <v>0.004211468825628732</v>
       </c>
       <c r="E53">
-        <v>0.08789811492616575</v>
+        <v>0.06887600789200707</v>
       </c>
       <c r="F53">
-        <v>7.508466574526852</v>
+        <v>7.798466659496716</v>
       </c>
       <c r="K53">
-        <v>7.799244224075378</v>
+        <v>8.471357695319142</v>
       </c>
       <c r="L53">
-        <v>8.356086346977966</v>
+        <v>7.293651227317715</v>
       </c>
       <c r="M53">
-        <v>8.354760194344756</v>
+        <v>8.466272445673191</v>
       </c>
       <c r="N53">
-        <v>0.03199558145937662</v>
+        <v>0.01900508347791133</v>
       </c>
       <c r="O53">
-        <v>0.002452810189089225</v>
+        <v>0.001053787854442177</v>
       </c>
       <c r="P53">
-        <v>0.02947854833396294</v>
+        <v>0.01697290967908664</v>
       </c>
       <c r="Q53">
-        <v>0.002297362585953653</v>
+        <v>0.001164683032388715</v>
       </c>
       <c r="R53">
-        <v>0.001779287508904286</v>
+        <v>0.001449583060630313</v>
       </c>
       <c r="S53">
-        <v>3.372289193539201E-06</v>
+        <v>2.144572047952644E-06</v>
       </c>
       <c r="T53">
-        <v>0.004090171892314704</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>0.001301617959726519</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>14.94815430061757</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0.0006498940886562407</v>
+        <v>4.213258268287412</v>
       </c>
       <c r="X53">
-        <v>1.610037788796231E-06</v>
+        <v>0.0003396685173962478</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.124690117069036E-06</v>
+        <v>5.73065468838069E-06</v>
       </c>
       <c r="C54">
-        <v>0.08496401291333858</v>
+        <v>0.06614489510084776</v>
       </c>
       <c r="D54">
-        <v>0.006221996554235154</v>
+        <v>0.004316039346319239</v>
       </c>
       <c r="E54">
-        <v>0.08964900924373408</v>
+        <v>0.07027265565357227</v>
       </c>
       <c r="F54">
-        <v>7.50844755404635</v>
+        <v>7.798447641090766</v>
       </c>
       <c r="K54">
-        <v>7.796236167619147</v>
+        <v>8.470242382560201</v>
       </c>
       <c r="L54">
-        <v>8.351464343641034</v>
+        <v>7.294927002561013</v>
       </c>
       <c r="M54">
-        <v>8.35483291623032</v>
+        <v>8.465299208193382</v>
       </c>
       <c r="N54">
-        <v>0.03261105586084094</v>
+        <v>0.01937906880340028</v>
       </c>
       <c r="O54">
-        <v>0.002510931223728083</v>
+        <v>0.001079670395382829</v>
       </c>
       <c r="P54">
-        <v>0.03004482303704647</v>
+        <v>0.01730224773422618</v>
       </c>
       <c r="Q54">
-        <v>0.002354559273207733</v>
+        <v>0.001192867762887919</v>
       </c>
       <c r="R54">
-        <v>0.00181628574264826</v>
+        <v>0.001479738029142446</v>
       </c>
       <c r="S54">
-        <v>3.442334149750861E-06</v>
+        <v>2.191939272527205E-06</v>
       </c>
       <c r="T54">
-        <v>0.004148266765910291</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>0.001325130075644427</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>15.01642304003713</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>0.000664558534737856</v>
+        <v>4.238125726323538</v>
       </c>
       <c r="X54">
-        <v>1.610188191619042E-06</v>
+        <v>0.0003474120307506833</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.089888015225289E-06</v>
+        <v>5.702310027307928E-06</v>
       </c>
       <c r="C55">
-        <v>0.08663937496353227</v>
+        <v>0.06746040267009304</v>
       </c>
       <c r="D55">
-        <v>0.006388867504824313</v>
+        <v>0.004425949773616619</v>
       </c>
       <c r="E55">
-        <v>0.09147159943488077</v>
+        <v>0.07172765050549747</v>
       </c>
       <c r="F55">
-        <v>7.50842826788843</v>
+        <v>7.798428357112254</v>
       </c>
       <c r="K55">
-        <v>7.793175317569367</v>
+        <v>8.4690958589459</v>
       </c>
       <c r="L55">
-        <v>8.346723938916448</v>
+        <v>7.296263903596624</v>
       </c>
       <c r="M55">
-        <v>8.354916419769131</v>
+        <v>8.464291030264036</v>
       </c>
       <c r="N55">
-        <v>0.0332514840446093</v>
+        <v>0.01976841770569852</v>
       </c>
       <c r="O55">
-        <v>0.002572036225474439</v>
+        <v>0.001106869424143175</v>
       </c>
       <c r="P55">
-        <v>0.03063397758521325</v>
+        <v>0.0176450004995738</v>
       </c>
       <c r="Q55">
-        <v>0.002414724020382595</v>
+        <v>0.0012224690325868</v>
       </c>
       <c r="R55">
-        <v>0.001854856878999292</v>
+        <v>0.001511175179990742</v>
       </c>
       <c r="S55">
-        <v>3.515742449804366E-06</v>
+        <v>2.241649405807916E-06</v>
       </c>
       <c r="T55">
-        <v>0.004208333504001054</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>0.00134967559619273</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>15.08853196111526</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>0.0006798537668278882</v>
+        <v>4.263437241661816</v>
       </c>
       <c r="X55">
-        <v>1.610341234121532E-06</v>
+        <v>0.000355484911081771</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.053700309755307E-06</v>
+        <v>5.672794811019372E-06</v>
       </c>
       <c r="C56">
-        <v>0.08838395121263462</v>
+        <v>0.06883071686349469</v>
       </c>
       <c r="D56">
-        <v>0.006564900340652998</v>
+        <v>0.004541616292205989</v>
       </c>
       <c r="E56">
-        <v>0.09337033960038818</v>
+        <v>0.0732447025217185</v>
       </c>
       <c r="F56">
-        <v>7.508408704366672</v>
+        <v>7.798408795882336</v>
       </c>
       <c r="K56">
-        <v>7.790074719617772</v>
+        <v>8.467911673281229</v>
       </c>
       <c r="L56">
-        <v>8.341940902986991</v>
+        <v>7.297667533180819</v>
       </c>
       <c r="M56">
-        <v>8.355034892065163</v>
+        <v>8.46325257054882</v>
       </c>
       <c r="N56">
-        <v>0.03391842856241658</v>
+        <v>0.02017410353790625</v>
       </c>
       <c r="O56">
-        <v>0.0026363790122649</v>
+        <v>0.001135486214555856</v>
       </c>
       <c r="P56">
-        <v>0.03124743961923131</v>
+        <v>0.01800201205320395</v>
       </c>
       <c r="Q56">
-        <v>0.002478076339825309</v>
+        <v>0.001253593132234682</v>
       </c>
       <c r="R56">
-        <v>0.00189510342544602</v>
+        <v>0.001543978082829545</v>
       </c>
       <c r="S56">
-        <v>3.592565759640668E-06</v>
+        <v>2.293849841324737E-06</v>
       </c>
       <c r="T56">
-        <v>0.004270478241127323</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>0.001375342375647395</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>15.16455723500763</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>0.0006958225675497103</v>
+        <v>4.289203951579644</v>
       </c>
       <c r="X56">
-        <v>1.610496264019111E-06</v>
+        <v>0.0003639083741409831</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.016044172801915E-06</v>
+        <v>5.642035612494085E-06</v>
       </c>
       <c r="C57">
-        <v>0.09020215234312309</v>
+        <v>0.07025936354285667</v>
       </c>
       <c r="D57">
-        <v>0.006750860118415085</v>
+        <v>0.00466349906874412</v>
       </c>
       <c r="E57">
-        <v>0.09535005571856381</v>
+        <v>0.07482783993457703</v>
       </c>
       <c r="F57">
-        <v>7.508388850986997</v>
+        <v>7.7983889449153</v>
       </c>
       <c r="K57">
-        <v>7.786922750934833</v>
+        <v>8.466693100529167</v>
       </c>
       <c r="L57">
-        <v>8.337050167979577</v>
+        <v>7.299142353829123</v>
       </c>
       <c r="M57">
-        <v>8.355171613626956</v>
+        <v>8.462182414085854</v>
       </c>
       <c r="N57">
-        <v>0.03461358521908662</v>
+        <v>0.02059718392286959</v>
       </c>
       <c r="O57">
-        <v>0.002704209565825765</v>
+        <v>0.00116563268691542</v>
       </c>
       <c r="P57">
-        <v>0.03188675880321811</v>
+        <v>0.0183741991403366</v>
       </c>
       <c r="Q57">
-        <v>0.002544890480426094</v>
+        <v>0.001286358801090636</v>
       </c>
       <c r="R57">
-        <v>0.001937137000105718</v>
+        <v>0.001578237732451505</v>
       </c>
       <c r="S57">
-        <v>3.673227745971009E-06</v>
+        <v>2.348733476859781E-06</v>
       </c>
       <c r="T57">
-        <v>0.004334814593693543</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>0.001402199094480619</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>15.24458677568192</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0.0007125097106721773</v>
+        <v>4.315452707163239</v>
       </c>
       <c r="X57">
-        <v>1.610653862453258E-06</v>
+        <v>0.0003727062539774422</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.976830221627993E-06</v>
+        <v>5.609952820765627E-06</v>
       </c>
       <c r="C58">
-        <v>0.09209877262095736</v>
+        <v>0.07175017864454106</v>
       </c>
       <c r="D58">
-        <v>0.006947598313931715</v>
+        <v>0.004792108175395359</v>
       </c>
       <c r="E58">
-        <v>0.09741598464702185</v>
+        <v>0.07648144357799064</v>
       </c>
       <c r="F58">
-        <v>7.508368694371739</v>
+        <v>7.798368790842609</v>
       </c>
       <c r="K58">
-        <v>7.783718334414051</v>
+        <v>8.465442447736846</v>
       </c>
       <c r="L58">
-        <v>8.332068686520778</v>
+        <v>7.300695786368292</v>
       </c>
       <c r="M58">
-        <v>8.355334526243679</v>
+        <v>8.461084246900697</v>
       </c>
       <c r="N58">
-        <v>0.03533879830211528</v>
+        <v>0.0210388100873231</v>
       </c>
       <c r="O58">
-        <v>0.002775824563822687</v>
+        <v>0.001197435431040174</v>
       </c>
       <c r="P58">
-        <v>0.03255361944691793</v>
+        <v>0.01876255914804674</v>
       </c>
       <c r="Q58">
-        <v>0.002615451408928888</v>
+        <v>0.001320898869296507</v>
       </c>
       <c r="R58">
-        <v>0.001981079358568439</v>
+        <v>0.001614053391519111</v>
       </c>
       <c r="S58">
-        <v>3.757977010514118E-06</v>
+        <v>2.406488617837038E-06</v>
       </c>
       <c r="T58">
-        <v>0.004401464945948383</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0.001430338604094253</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>15.32872515123074</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>0.0007299637069705692</v>
+        <v>4.342207764505201</v>
       </c>
       <c r="X58">
-        <v>1.610814083279297E-06</v>
+        <v>0.0003819036991944876</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.935961956173005E-06</v>
+        <v>5.576460034952211E-06</v>
       </c>
       <c r="C59">
-        <v>0.09407903248856261</v>
+        <v>0.07330734307405608</v>
       </c>
       <c r="D59">
-        <v>0.00715606512704056</v>
+        <v>0.004928010444460795</v>
       </c>
       <c r="E59">
-        <v>0.09957381819603207</v>
+        <v>0.07821028589876138</v>
       </c>
       <c r="F59">
-        <v>7.508348220173856</v>
+        <v>7.798348319327251</v>
       </c>
       <c r="K59">
-        <v>7.780459979601829</v>
+        <v>8.464152410020183</v>
       </c>
       <c r="L59">
-        <v>8.32698604315782</v>
+        <v>7.302338492738222</v>
       </c>
       <c r="M59">
-        <v>8.355523158977952</v>
+        <v>8.459951609510707</v>
       </c>
       <c r="N59">
-        <v>0.03609607676114535</v>
+        <v>0.02150023740491108</v>
       </c>
       <c r="O59">
-        <v>0.002851548690489859</v>
+        <v>0.001231032652591061</v>
       </c>
       <c r="P59">
-        <v>0.03324985591291768</v>
+        <v>0.01916817915452931</v>
       </c>
       <c r="Q59">
-        <v>0.002690085120533471</v>
+        <v>0.001357360977471633</v>
       </c>
       <c r="R59">
-        <v>0.002027063576744205</v>
+        <v>0.001651533552051698</v>
       </c>
       <c r="S59">
-        <v>3.847170120501028E-06</v>
+        <v>2.467376675863606E-06</v>
       </c>
       <c r="T59">
-        <v>0.004470560907386852</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0.001459856680727808</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>15.4170928547212</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0.0007482387625140868</v>
+        <v>4.369485788198514</v>
       </c>
       <c r="X59">
-        <v>1.610977001019908E-06</v>
+        <v>0.0003915288402386149</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.893335033144173E-06</v>
+        <v>5.541463285102316E-06</v>
       </c>
       <c r="C60">
-        <v>0.09614862694955122</v>
+        <v>0.07493542242237977</v>
       </c>
       <c r="D60">
-        <v>0.007377324057742548</v>
+        <v>0.00507183755236044</v>
       </c>
       <c r="E60">
-        <v>0.1018297527929831</v>
+        <v>0.08001957511078335</v>
       </c>
       <c r="F60">
-        <v>7.50832741298186</v>
+        <v>7.798327514968859</v>
       </c>
       <c r="K60">
-        <v>7.777145304923696</v>
+        <v>8.462820500936649</v>
       </c>
       <c r="L60">
-        <v>8.321821041357895</v>
+        <v>7.304069387073506</v>
       </c>
       <c r="M60">
-        <v>8.355745092929551</v>
+        <v>8.458785573044246</v>
       </c>
       <c r="N60">
-        <v>0.03688761314377999</v>
+        <v>0.02198283751806155</v>
       </c>
       <c r="O60">
-        <v>0.002931749505838739</v>
+        <v>0.001266579382830065</v>
       </c>
       <c r="P60">
-        <v>0.03397746950321254</v>
+        <v>0.01959224625398306</v>
       </c>
       <c r="Q60">
-        <v>0.002769147313157533</v>
+        <v>0.001395908361863345</v>
       </c>
       <c r="R60">
-        <v>0.002075235395949531</v>
+        <v>0.00169079703241779</v>
       </c>
       <c r="S60">
-        <v>3.941128076056595E-06</v>
+        <v>2.53164963239483E-06</v>
       </c>
       <c r="T60">
-        <v>0.004542244341354923</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>0.001490865247859914</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>15.50982878917957</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>0.0007673938721677173</v>
+        <v>4.397308204754246</v>
       </c>
       <c r="X60">
-        <v>1.611142734753815E-06</v>
+        <v>0.0004016120673958072</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.84883649201159E-06</v>
+        <v>5.504860227281416E-06</v>
       </c>
       <c r="C61">
-        <v>0.09831378067861972</v>
+        <v>0.07663941229725829</v>
       </c>
       <c r="D61">
-        <v>0.007612569064448638</v>
+        <v>0.005224295451685112</v>
       </c>
       <c r="E61">
-        <v>0.1041905457197524</v>
+        <v>0.08191500544514801</v>
       </c>
       <c r="F61">
-        <v>7.508306256212293</v>
+        <v>7.79830636119623</v>
       </c>
       <c r="K61">
-        <v>7.773770755145017</v>
+        <v>8.461447615398418</v>
       </c>
       <c r="L61">
-        <v>8.316544137826654</v>
+        <v>7.305899603763901</v>
       </c>
       <c r="M61">
-        <v>8.355995772584794</v>
+        <v>8.457583547952083</v>
       </c>
       <c r="N61">
-        <v>0.03771580493982734</v>
+        <v>0.02248811210672573</v>
       </c>
       <c r="O61">
-        <v>0.003016831540954171</v>
+        <v>0.001304249380204227</v>
       </c>
       <c r="P61">
-        <v>0.03473864809321388</v>
+        <v>0.02003605937330305</v>
       </c>
       <c r="Q61">
-        <v>0.002853050033871611</v>
+        <v>0.001436724837018539</v>
       </c>
       <c r="R61">
-        <v>0.002125754768336689</v>
+        <v>0.00173197423687597</v>
       </c>
       <c r="S61">
-        <v>4.040333191648277E-06</v>
+        <v>2.599604932976726E-06</v>
       </c>
       <c r="T61">
-        <v>0.00461666822168407</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>0.001523479186994066</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>15.60708942417615</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>0.0007874937058790015</v>
+        <v>4.425705257077688</v>
       </c>
       <c r="X61">
-        <v>1.611311462242749E-06</v>
+        <v>0.0004121870866178131</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.802343942365014E-06</v>
+        <v>5.466539229246092E-06</v>
       </c>
       <c r="C62">
-        <v>0.100581310968974</v>
+        <v>0.07842479021839763</v>
       </c>
       <c r="D62">
-        <v>0.007863144826608388</v>
+        <v>0.005386175486827695</v>
       </c>
       <c r="E62">
-        <v>0.1066635789605739</v>
+        <v>0.08390281440508712</v>
       </c>
       <c r="F62">
-        <v>7.50828473198623</v>
+        <v>7.798284840144077</v>
       </c>
       <c r="K62">
-        <v>7.770336281335221</v>
+        <v>8.460034392545619</v>
       </c>
       <c r="L62">
-        <v>8.311168164869967</v>
+        <v>7.307845531742902</v>
       </c>
       <c r="M62">
-        <v>8.356281884497365</v>
+        <v>8.456349281079737</v>
       </c>
       <c r="N62">
-        <v>0.03858327927479917</v>
+        <v>0.02301770867488877</v>
       </c>
       <c r="O62">
-        <v>0.003107255827553688</v>
+        <v>0.001344236027166238</v>
       </c>
       <c r="P62">
-        <v>0.03553578804469744</v>
+        <v>0.02050104273671016</v>
       </c>
       <c r="Q62">
-        <v>0.002942244149428087</v>
+        <v>0.001480012717085468</v>
       </c>
       <c r="R62">
-        <v>0.002178797629215315</v>
+        <v>0.001775208602674545</v>
       </c>
       <c r="S62">
-        <v>4.145211540347938E-06</v>
+        <v>2.671539361469275E-06</v>
       </c>
       <c r="T62">
-        <v>0.00469399794755132</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>0.001557834139501623</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>15.70905212424797</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>0.0008086098021576011</v>
+        <v>4.454707312521869</v>
       </c>
       <c r="X62">
-        <v>1.611483185933239E-06</v>
+        <v>0.0004232906011364974</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.753724569037538E-06</v>
+        <v>5.426378310443006E-06</v>
       </c>
       <c r="C63">
-        <v>0.1029586998444193</v>
+        <v>0.08029757521151482</v>
       </c>
       <c r="D63">
-        <v>0.008130570988361962</v>
+        <v>0.005558367570996596</v>
       </c>
       <c r="E63">
-        <v>0.1092569317096599</v>
+        <v>0.08598984818093185</v>
       </c>
       <c r="F63">
-        <v>7.508262820993683</v>
+        <v>7.798262932517425</v>
       </c>
       <c r="K63">
-        <v>7.766834769958819</v>
+        <v>8.45857210477012</v>
       </c>
       <c r="L63">
-        <v>8.305687554771277</v>
+        <v>7.309903071377132</v>
       </c>
       <c r="M63">
-        <v>8.356605279410351</v>
+        <v>8.455070848580641</v>
       </c>
       <c r="N63">
-        <v>0.03949292090165162</v>
+        <v>0.02357343874277909</v>
       </c>
       <c r="O63">
-        <v>0.003203539990176654</v>
+        <v>0.001386758362396146</v>
       </c>
       <c r="P63">
-        <v>0.03637151993944793</v>
+        <v>0.02098876145516208</v>
       </c>
       <c r="Q63">
-        <v>0.003037244425362985</v>
+        <v>0.001526005906885539</v>
       </c>
       <c r="R63">
-        <v>0.002234557947617238</v>
+        <v>0.001820658270964624</v>
       </c>
       <c r="S63">
-        <v>4.256298150633291E-06</v>
+        <v>2.747884907745588E-06</v>
       </c>
       <c r="T63">
-        <v>0.004774412404167979</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0.001594077798716501</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>15.81591618737004</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0.0008308197605689545</v>
+        <v>4.48433448437147</v>
       </c>
       <c r="X63">
-        <v>1.611658261502059E-06</v>
+        <v>0.0004349631905800116</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.702834149653986E-06</v>
+        <v>5.384243952804357E-06</v>
       </c>
       <c r="C64">
-        <v>0.1054541769195787</v>
+        <v>0.08226439646521268</v>
       </c>
       <c r="D64">
-        <v>0.008416570973532881</v>
+        <v>0.005741875842055932</v>
       </c>
       <c r="E64">
-        <v>0.1119794631695479</v>
+        <v>0.08818363658963752</v>
       </c>
       <c r="F64">
-        <v>7.508240502334654</v>
+        <v>7.798240617433134</v>
       </c>
       <c r="K64">
-        <v>7.763262102842335</v>
+        <v>8.457060871584044</v>
       </c>
       <c r="L64">
-        <v>8.300074235454975</v>
+        <v>7.312086275064467</v>
       </c>
       <c r="M64">
-        <v>8.356962100782644</v>
+        <v>8.45374613904456</v>
       </c>
       <c r="N64">
-        <v>0.04044790460984833</v>
+        <v>0.02415729875278917</v>
       </c>
       <c r="O64">
-        <v>0.003306264817617609</v>
+        <v>0.00143206326989782</v>
       </c>
       <c r="P64">
-        <v>0.03724873771613438</v>
+        <v>0.02150093923274831</v>
       </c>
       <c r="Q64">
-        <v>0.003138638830048168</v>
+        <v>0.001574964449474078</v>
       </c>
       <c r="R64">
-        <v>0.002293250096287411</v>
+        <v>0.001868498017966121</v>
       </c>
       <c r="S64">
-        <v>4.374253925828383E-06</v>
+        <v>2.82906056562334E-06</v>
       </c>
       <c r="T64">
-        <v>0.004858105420100913</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>0.001632370582358574</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>15.92790393406934</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>0.0008542106467063162</v>
+        <v>4.514622708452009</v>
       </c>
       <c r="X64">
-        <v>1.611836894857883E-06</v>
+        <v>0.0004472498472963603</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.649515865744642E-06</v>
+        <v>5.339989751715619E-06</v>
       </c>
       <c r="C65">
-        <v>0.1080768149181204</v>
+        <v>0.08433257269827096</v>
       </c>
       <c r="D65">
-        <v>0.008723106760183012</v>
+        <v>0.005937837367003397</v>
       </c>
       <c r="E65">
-        <v>0.1148409070742994</v>
+        <v>0.09049247919940928</v>
       </c>
       <c r="F65">
-        <v>7.508217753341556</v>
+        <v>7.798217872242413</v>
       </c>
       <c r="K65">
-        <v>7.759619144544411</v>
+        <v>8.455497585729974</v>
       </c>
       <c r="L65">
-        <v>8.294349296921451</v>
+        <v>7.314410106107424</v>
       </c>
       <c r="M65">
-        <v>8.357362253571052</v>
+        <v>8.452382057569327</v>
       </c>
       <c r="N65">
-        <v>0.04145173271234106</v>
+        <v>0.02477149430638083</v>
       </c>
       <c r="O65">
-        <v>0.00341610261828474</v>
+        <v>0.001480427908619265</v>
       </c>
       <c r="P65">
-        <v>0.0381706322806232</v>
+        <v>0.02203947909175572</v>
       </c>
       <c r="Q65">
-        <v>0.003247083875401855</v>
+        <v>0.001627176714141121</v>
       </c>
       <c r="R65">
-        <v>0.002355111605540427</v>
+        <v>0.001918921503301269</v>
       </c>
       <c r="S65">
-        <v>4.499688572245653E-06</v>
+        <v>2.915478645999915E-06</v>
       </c>
       <c r="T65">
-        <v>0.004945287442742598</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>0.001672902686472154</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>16.04526542791453</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0.0008788790925068367</v>
+        <v>4.545604155556738</v>
       </c>
       <c r="X65">
-        <v>1.612019042772779E-06</v>
+        <v>0.0004601999461593836</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.593599053588255E-06</v>
+        <v>5.293454904211374E-06</v>
       </c>
       <c r="C66">
-        <v>0.1108366401447298</v>
+        <v>0.08651020423525062</v>
       </c>
       <c r="D66">
-        <v>0.009052420789936143</v>
+        <v>0.006147544580853792</v>
       </c>
       <c r="E66">
-        <v>0.1178519801131526</v>
+        <v>0.09292554460852999</v>
       </c>
       <c r="F66">
-        <v>7.508194549375142</v>
+        <v>7.798194672327008</v>
       </c>
       <c r="K66">
-        <v>7.755897862128416</v>
+        <v>8.453885195016039</v>
       </c>
       <c r="L66">
-        <v>8.288498213012778</v>
+        <v>7.316889902750415</v>
       </c>
       <c r="M66">
-        <v>8.357806528509347</v>
+        <v>8.450974117960946</v>
       </c>
       <c r="N66">
-        <v>0.04250827799273152</v>
+        <v>0.02541846837298532</v>
       </c>
       <c r="O66">
-        <v>0.003533810600013227</v>
+        <v>0.001532170744146662</v>
       </c>
       <c r="P66">
-        <v>0.03914073084743491</v>
+        <v>0.0226064874911339</v>
       </c>
       <c r="Q66">
-        <v>0.003363336187359293</v>
+        <v>0.001682977701118473</v>
       </c>
       <c r="R66">
-        <v>0.002420406381011765</v>
+        <v>0.001972143892875027</v>
       </c>
       <c r="S66">
-        <v>4.633400437125934E-06</v>
+        <v>3.007687287270823E-06</v>
       </c>
       <c r="T66">
-        <v>0.005036187019305667</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>0.00171588059442144</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>16.16827985223029</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>0.0009049316354338754</v>
+        <v>4.577325775066107</v>
       </c>
       <c r="X66">
-        <v>1.612205106893579E-06</v>
+        <v>0.000473869852475608</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.534897769172938E-06</v>
+        <v>5.2444624193483E-06</v>
       </c>
       <c r="C67">
-        <v>0.1137447606977239</v>
+        <v>0.08880628022537625</v>
       </c>
       <c r="D67">
-        <v>0.009407086972014036</v>
+        <v>0.006372472444280089</v>
       </c>
       <c r="E67">
-        <v>0.1210245064482104</v>
+        <v>0.0954929851172389</v>
       </c>
       <c r="F67">
-        <v>7.508170863588943</v>
+        <v>7.79817099086406</v>
       </c>
       <c r="K67">
-        <v>7.752092031310612</v>
+        <v>8.452214207461543</v>
       </c>
       <c r="L67">
-        <v>8.282498604548021</v>
+        <v>7.319540848190095</v>
       </c>
       <c r="M67">
-        <v>8.358293876012098</v>
+        <v>8.449520245724573</v>
       </c>
       <c r="N67">
-        <v>0.04362183420395205</v>
+        <v>0.02610093401952357</v>
       </c>
       <c r="O67">
-        <v>0.003660255337567531</v>
+        <v>0.001587651659537663</v>
       </c>
       <c r="P67">
-        <v>0.04016294212343707</v>
+        <v>0.02320430205656292</v>
       </c>
       <c r="Q67">
-        <v>0.00348826538831649</v>
+        <v>0.001742744423840271</v>
       </c>
       <c r="R67">
-        <v>0.002489428466171041</v>
+        <v>0.002028404927320392</v>
       </c>
       <c r="S67">
-        <v>4.776320146146109E-06</v>
+        <v>3.106291166658721E-06</v>
       </c>
       <c r="T67">
-        <v>0.005131052917159503</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>0.001761535883853351</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>16.29725863126725</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>0.0009324870101136661</v>
+        <v>4.609817907086814</v>
       </c>
       <c r="X67">
-        <v>1.612395398434469E-06</v>
+        <v>0.0004883205018595752</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.473209328364394E-06</v>
+        <v>5.192817184255784E-06</v>
       </c>
       <c r="C68">
-        <v>0.1168135158073036</v>
+        <v>0.09123080398364378</v>
       </c>
       <c r="D68">
-        <v>0.009790072797943167</v>
+        <v>0.006614311313808142</v>
       </c>
       <c r="E68">
-        <v>0.1243715614560433</v>
+        <v>0.09820606985343584</v>
       </c>
       <c r="F68">
-        <v>7.508146666658895</v>
+        <v>7.798146798556155</v>
       </c>
       <c r="K68">
-        <v>7.748198991819162</v>
+        <v>8.450485129404289</v>
       </c>
       <c r="L68">
-        <v>8.276353497965017</v>
+        <v>7.322372513729429</v>
       </c>
       <c r="M68">
-        <v>8.358830108686087</v>
+        <v>8.448017721729688</v>
       </c>
       <c r="N68">
-        <v>0.04479717475884571</v>
+        <v>0.02682191291246433</v>
       </c>
       <c r="O68">
-        <v>0.00379644115287953</v>
+        <v>0.001647286424121408</v>
       </c>
       <c r="P68">
-        <v>0.04124160908623473</v>
+        <v>0.02383552433987829</v>
       </c>
       <c r="Q68">
-        <v>0.003622867380462851</v>
+        <v>0.001806912160728741</v>
       </c>
       <c r="R68">
-        <v>0.002562506470465891</v>
+        <v>0.00208797253426609</v>
       </c>
       <c r="S68">
-        <v>4.929446199435046E-06</v>
+        <v>3.211987061997859E-06</v>
       </c>
       <c r="T68">
-        <v>0.005230156359315566</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>0.001810135870199091</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>16.43255049762683</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>0.0009616788740786132</v>
+        <v>4.643129900844826</v>
       </c>
       <c r="X68">
-        <v>1.612590050409042E-06</v>
+        <v>0.0005036211396509142</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.408312562885538E-06</v>
+        <v>5.138303626615883E-06</v>
       </c>
       <c r="C69">
-        <v>0.1200566504439509</v>
+        <v>0.09379494012515396</v>
       </c>
       <c r="D69">
-        <v>0.01020481597345311</v>
+        <v>0.006875007233228542</v>
       </c>
       <c r="E69">
-        <v>0.127907637683836</v>
+        <v>0.101077339498585</v>
       </c>
       <c r="F69">
-        <v>7.508121926471565</v>
+        <v>7.798122063320034</v>
       </c>
       <c r="K69">
-        <v>7.744214520683129</v>
+        <v>8.448690799527443</v>
       </c>
       <c r="L69">
-        <v>8.270063698181556</v>
+        <v>7.325405712667289</v>
       </c>
       <c r="M69">
-        <v>8.359422273691225</v>
+        <v>8.446458184196844</v>
       </c>
       <c r="N69">
-        <v>0.04603962123175378</v>
+        <v>0.02758478038180806</v>
       </c>
       <c r="O69">
-        <v>0.003943529294006326</v>
+        <v>0.001711552061785734</v>
       </c>
       <c r="P69">
-        <v>0.04238157095610661</v>
+        <v>0.02450305804227676</v>
       </c>
       <c r="Q69">
-        <v>0.00376829238661198</v>
+        <v>0.001875981540103587</v>
       </c>
       <c r="R69">
-        <v>0.002640008804534571</v>
+        <v>0.002151147096302577</v>
       </c>
       <c r="S69">
-        <v>5.093916662464876E-06</v>
+        <v>3.32561685757585E-06</v>
       </c>
       <c r="T69">
-        <v>0.005333793343834247</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>0.001861985076780306</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>16.57454641546715</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.0009926570233630455</v>
+        <v>4.677303020916018</v>
       </c>
       <c r="X69">
-        <v>1.612789273965843E-06</v>
+        <v>0.0005198484541136814</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.339966064780727E-06</v>
+        <v>5.080683191443047E-06</v>
       </c>
       <c r="C70">
-        <v>0.123489520271154</v>
+        <v>0.09651118802802663</v>
       </c>
       <c r="D70">
-        <v>0.01065531898579448</v>
+        <v>0.007156811311007898</v>
       </c>
       <c r="E70">
-        <v>0.1316488375827643</v>
+        <v>0.1041207871301208</v>
       </c>
       <c r="F70">
-        <v>7.508096607758763</v>
+        <v>7.79809674992162</v>
       </c>
       <c r="K70">
-        <v>7.7401278070474</v>
+        <v>8.446833634656917</v>
       </c>
       <c r="L70">
-        <v>8.263598051368545</v>
+        <v>7.328668693781869</v>
       </c>
       <c r="M70">
-        <v>8.360067327145705</v>
+        <v>8.444847392937074</v>
       </c>
       <c r="N70">
-        <v>0.04735512410480839</v>
+        <v>0.02839331876680875</v>
       </c>
       <c r="O70">
-        <v>0.004102859642065268</v>
+        <v>0.001780999140368088</v>
       </c>
       <c r="P70">
-        <v>0.04358823591140332</v>
+        <v>0.02521015418296967</v>
       </c>
       <c r="Q70">
-        <v>0.003925888199830079</v>
+        <v>0.001950523920059789</v>
       </c>
       <c r="R70">
-        <v>0.002722349894780574</v>
+        <v>0.002218266517535233</v>
       </c>
       <c r="S70">
-        <v>5.271188738092888E-06</v>
+        <v>3.448039441167461E-06</v>
       </c>
       <c r="T70">
-        <v>0.005442287352179683</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>0.00191742272236947</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>16.72368356543312</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>0.001025588525112127</v>
+        <v>4.712400286851363</v>
       </c>
       <c r="X70">
-        <v>1.61299360964763E-06</v>
+        <v>0.0005370901312348586</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.267906277497736E-06</v>
+        <v>5.019691335516079E-06</v>
       </c>
       <c r="C71">
-        <v>0.127129333215843</v>
+        <v>0.09939358727696272</v>
       </c>
       <c r="D71">
-        <v>0.01114626696665297</v>
+        <v>0.00746234098275943</v>
       </c>
       <c r="E71">
-        <v>0.1356130978343763</v>
+        <v>0.1073520699796236</v>
       </c>
       <c r="F71">
-        <v>7.508070671675377</v>
+        <v>7.798070819554776</v>
       </c>
       <c r="K71">
-        <v>7.735937708013389</v>
+        <v>8.444903014755159</v>
       </c>
       <c r="L71">
-        <v>8.256959906861795</v>
+        <v>7.332185015626036</v>
       </c>
       <c r="M71">
-        <v>8.360774606477895</v>
+        <v>8.443182303281407</v>
       </c>
       <c r="N71">
-        <v>0.04875035844231623</v>
+        <v>0.02925178069024233</v>
       </c>
       <c r="O71">
-        <v>0.004276009904382039</v>
+        <v>0.001856268595258115</v>
       </c>
       <c r="P71">
-        <v>0.04486766648274439</v>
+        <v>0.02596046483661193</v>
       </c>
       <c r="Q71">
-        <v>0.004097218349280439</v>
+        <v>0.002031206916294774</v>
       </c>
       <c r="R71">
-        <v>0.002809997594975493</v>
+        <v>0.002289712274893107</v>
       </c>
       <c r="S71">
-        <v>5.462802725761924E-06</v>
+        <v>3.58031996595553E-06</v>
       </c>
       <c r="T71">
-        <v>0.005555992662818721</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>0.001976847174875413</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>16.88045388260092</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>0.001060664198583623</v>
+        <v>4.748468513750502</v>
       </c>
       <c r="X71">
-        <v>1.613203114599331E-06</v>
+        <v>0.0005554438560054775</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.191845465257368E-06</v>
+        <v>4.955034149204646E-06</v>
       </c>
       <c r="C72">
-        <v>0.1309954354241493</v>
+        <v>0.1024579621534362</v>
       </c>
       <c r="D72">
-        <v>0.011683175627731</v>
+        <v>0.007794656336441419</v>
       </c>
       <c r="E72">
-        <v>0.139820451333931</v>
+        <v>0.1107887585454591</v>
       </c>
       <c r="F72">
-        <v>7.508044075298945</v>
+        <v>7.798044229341643</v>
       </c>
       <c r="K72">
-        <v>7.731633750528332</v>
+        <v>8.442893536858318</v>
       </c>
       <c r="L72">
-        <v>8.250139235944069</v>
+        <v>7.335963960731538</v>
       </c>
       <c r="M72">
-        <v>8.361549821237324</v>
+        <v>8.441444389027481</v>
       </c>
       <c r="N72">
-        <v>0.05023283672691404</v>
+        <v>0.0301649644267418</v>
       </c>
       <c r="O72">
-        <v>0.004464829375608926</v>
+        <v>0.001938113234936362</v>
       </c>
       <c r="P72">
-        <v>0.04622668142052652</v>
+        <v>0.02675810676728917</v>
       </c>
       <c r="Q72">
-        <v>0.004284124720655728</v>
+        <v>0.002118819916078914</v>
       </c>
       <c r="R72">
-        <v>0.002903482088050485</v>
+        <v>0.002365916673390679</v>
       </c>
       <c r="S72">
-        <v>5.670625392552125E-06</v>
+        <v>3.723837655343115E-06</v>
       </c>
       <c r="T72">
-        <v>0.005675297512416831</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>0.002040713617748362</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>17.04541141239911</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>0.001098098714162291</v>
+        <v>4.785569485391889</v>
       </c>
       <c r="X72">
-        <v>1.613418312473583E-06</v>
+        <v>0.0005750204467217868</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.474503569574766E-06</v>
+        <v>6.272335553406915E-06</v>
       </c>
       <c r="C73">
-        <v>0.1351096512791982</v>
+        <v>0.1057222140781601</v>
       </c>
       <c r="D73">
-        <v>0.009270025377373025</v>
+        <v>0.006319934706082555</v>
       </c>
       <c r="E73">
-        <v>0.1420507344785695</v>
+        <v>0.1120286044452077</v>
       </c>
       <c r="F73">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K73">
-        <v>7.727204144999814</v>
+        <v>8.440808746317144</v>
       </c>
       <c r="L73">
-        <v>8.269634254899163</v>
+        <v>7.246849908002562</v>
       </c>
       <c r="M73">
-        <v>8.353739810928539</v>
+        <v>8.441018304997259</v>
       </c>
       <c r="N73">
-        <v>0.05181104387695903</v>
+        <v>0.03113830412301095</v>
       </c>
       <c r="O73">
-        <v>0.003648049585726111</v>
+        <v>0.001568891840728317</v>
       </c>
       <c r="P73">
-        <v>0.04767297647914275</v>
+        <v>0.02760773734836537</v>
       </c>
       <c r="Q73">
-        <v>0.003482574940994765</v>
+        <v>0.001751465625690969</v>
       </c>
       <c r="R73">
-        <v>0.003003406621245585</v>
+        <v>0.002447371598760862</v>
       </c>
       <c r="S73">
-        <v>4.609478719399674E-06</v>
+        <v>3.010294803194937E-06</v>
       </c>
       <c r="T73">
-        <v>0.005800627991543328</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>0.00176535883043439</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>17.1522035118549</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>0.001138142683932978</v>
+        <v>4.823786492954884</v>
       </c>
       <c r="X73">
-        <v>1.613639792750009E-06</v>
+        <v>0.0005959499385464137</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.384099943729827E-06</v>
+        <v>6.197551863110456E-06</v>
       </c>
       <c r="C74">
-        <v>0.1396039236328348</v>
+        <v>0.1092722954843057</v>
       </c>
       <c r="D74">
-        <v>0.00973490718877883</v>
+        <v>0.006613442024610194</v>
       </c>
       <c r="E74">
-        <v>0.146871781200603</v>
+        <v>0.115912508534466</v>
       </c>
       <c r="F74">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K74">
-        <v>7.72286204966023</v>
+        <v>8.438388974715071</v>
       </c>
       <c r="L74">
-        <v>8.252810975313755</v>
+        <v>7.251563080508646</v>
       </c>
       <c r="M74">
-        <v>8.351550469498413</v>
+        <v>8.438570034328039</v>
       </c>
       <c r="N74">
-        <v>0.05353115081593163</v>
+        <v>0.0321943545616639</v>
       </c>
       <c r="O74">
-        <v>0.003815635490856687</v>
+        <v>0.001643258509882665</v>
       </c>
       <c r="P74">
-        <v>0.04925120510550517</v>
+        <v>0.02853117562417518</v>
       </c>
       <c r="Q74">
-        <v>0.003653325543660177</v>
+        <v>0.001832069397988937</v>
       </c>
       <c r="R74">
-        <v>0.003110506519192948</v>
+        <v>0.00253467021675935</v>
       </c>
       <c r="S74">
-        <v>4.847926478892175E-06</v>
+        <v>3.137473253280123E-06</v>
       </c>
       <c r="T74">
-        <v>0.005944744747297219</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0.001824248791647448</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>17.26737263936062</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>0.001181055684921461</v>
+        <v>4.86245501885502</v>
       </c>
       <c r="X74">
-        <v>1.613856897516988E-06</v>
+        <v>0.0006183560225988267</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.287808898945265E-06</v>
+        <v>6.117626557278477E-06</v>
       </c>
       <c r="C75">
-        <v>0.1444138872048369</v>
+        <v>0.1130744752420722</v>
       </c>
       <c r="D75">
-        <v>0.0102479093870091</v>
+        <v>0.006935268364907429</v>
       </c>
       <c r="E75">
-        <v>0.1520296635790851</v>
+        <v>0.1200749535142701</v>
       </c>
       <c r="F75">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K75">
-        <v>7.718424032216418</v>
+        <v>8.435866498077784</v>
       </c>
       <c r="L75">
-        <v>8.245567318370215</v>
+        <v>7.255116215524307</v>
       </c>
       <c r="M75">
-        <v>8.352351447865471</v>
+        <v>8.436296992158191</v>
       </c>
       <c r="N75">
-        <v>0.05537246619834181</v>
+        <v>0.0333258766376558</v>
       </c>
       <c r="O75">
-        <v>0.003998462415480014</v>
+        <v>0.001722371519004072</v>
       </c>
       <c r="P75">
-        <v>0.05094001545964758</v>
+        <v>0.02952003141033022</v>
       </c>
       <c r="Q75">
-        <v>0.003834034772477075</v>
+        <v>0.001918290352116235</v>
       </c>
       <c r="R75">
-        <v>0.003225530911515691</v>
+        <v>0.002628430688741057</v>
       </c>
       <c r="S75">
-        <v>5.044393556639859E-06</v>
+        <v>3.274296487575277E-06</v>
       </c>
       <c r="T75">
-        <v>0.006097355708617581</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>0.001890926595675669</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>17.39205371899104</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.001227176984183884</v>
+        <v>4.902353594596249</v>
       </c>
       <c r="X75">
-        <v>1.614078798389179E-06</v>
+        <v>0.0006424220680157587</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.185066310065961E-06</v>
+        <v>6.032023629485779E-06</v>
       </c>
       <c r="C76">
-        <v>0.1495741171209072</v>
+        <v>0.1171567524296555</v>
       </c>
       <c r="D76">
-        <v>0.01081671328919584</v>
+        <v>0.007289649669558064</v>
       </c>
       <c r="E76">
-        <v>0.1575602393526499</v>
+        <v>0.1245465538227513</v>
       </c>
       <c r="F76">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K76">
-        <v>7.713843709461409</v>
+        <v>8.433227995295844</v>
       </c>
       <c r="L76">
-        <v>8.238183475193043</v>
+        <v>7.259011797658278</v>
       </c>
       <c r="M76">
-        <v>8.353232787219588</v>
+        <v>8.433914056273665</v>
       </c>
       <c r="N76">
-        <v>0.05734838942075957</v>
+        <v>0.03454139606529625</v>
       </c>
       <c r="O76">
-        <v>0.004200481740796641</v>
+        <v>0.001809466876833142</v>
       </c>
       <c r="P76">
-        <v>0.05275178394761568</v>
+        <v>0.03058163683564614</v>
       </c>
       <c r="Q76">
-        <v>0.004033754169397183</v>
+        <v>0.002013038671000231</v>
       </c>
       <c r="R76">
-        <v>0.00334939577759104</v>
+        <v>0.002729398242289267</v>
       </c>
       <c r="S76">
-        <v>5.260060597100627E-06</v>
+        <v>3.424459209840657E-06</v>
       </c>
       <c r="T76">
-        <v>0.006259141443730731</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>0.001963508814955979</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>17.52696929615581</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>0.001276873321353473</v>
+        <v>4.943563343185968</v>
       </c>
       <c r="X76">
-        <v>1.61430781452693E-06</v>
+        <v>0.0006683390381816033</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.074297934447123E-06</v>
+        <v>5.939171388658515E-06</v>
       </c>
       <c r="C77">
-        <v>0.1551244132741757</v>
+        <v>0.1215514365400594</v>
       </c>
       <c r="D77">
-        <v>0.01145254250246782</v>
+        <v>0.007682784440714747</v>
       </c>
       <c r="E77">
-        <v>0.1635028113785546</v>
+        <v>0.1293611138687784</v>
       </c>
       <c r="F77">
-        <v>9.006936647509919</v>
+        <v>9.29693692926744</v>
       </c>
       <c r="K77">
-        <v>7.709107013919705</v>
+        <v>8.430470221471984</v>
       </c>
       <c r="L77">
-        <v>8.230540519427491</v>
+        <v>7.263374087947035</v>
       </c>
       <c r="M77">
-        <v>8.354207811300006</v>
+        <v>8.431433296543421</v>
       </c>
       <c r="N77">
-        <v>0.05947430572795809</v>
+        <v>0.03585067323283477</v>
       </c>
       <c r="O77">
-        <v>0.004425390173264276</v>
+        <v>0.001906050571979893</v>
       </c>
       <c r="P77">
-        <v>0.05470050513874442</v>
+        <v>0.03172438076223198</v>
       </c>
       <c r="Q77">
-        <v>0.004256199191931713</v>
+        <v>0.002117874957889786</v>
       </c>
       <c r="R77">
-        <v>0.003483161206270797</v>
+        <v>0.002838437193612444</v>
       </c>
       <c r="S77">
-        <v>5.498794021206883E-06</v>
+        <v>3.590366130932749E-06</v>
       </c>
       <c r="T77">
-        <v>0.006430966748881722</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>0.00204305080147576</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>17.67299844725214</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>0.001330574572193054</v>
+        <v>4.986194661689666</v>
       </c>
       <c r="X77">
-        <v>1.614544649304015E-06</v>
+        <v>0.0006963295793345172</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.95666602244761E-06</v>
+        <v>5.840277649500549E-06</v>
       </c>
       <c r="C78">
-        <v>0.1611107412229969</v>
+        <v>0.1262959637108654</v>
       </c>
       <c r="D78">
-        <v>0.01216338959289992</v>
+        <v>0.008118814939644326</v>
       </c>
       <c r="E78">
-        <v>0.1699076593807594</v>
+        <v>0.1345618374261401</v>
       </c>
       <c r="F78">
-        <v>9.006910200095369</v>
+        <v>9.296910490391729</v>
       </c>
       <c r="K78">
-        <v>7.704202232576158</v>
+        <v>8.427583149394254</v>
       </c>
       <c r="L78">
-        <v>8.222727013336684</v>
+        <v>7.268122920811499</v>
       </c>
       <c r="M78">
-        <v>8.355298960995222</v>
+        <v>8.428837737804249</v>
       </c>
       <c r="N78">
-        <v>0.06176801054273701</v>
+        <v>0.0372650325103704</v>
       </c>
       <c r="O78">
-        <v>0.004675866343314905</v>
+        <v>0.002013123232762188</v>
       </c>
       <c r="P78">
-        <v>0.05680235121986161</v>
+        <v>0.03295798517074625</v>
       </c>
       <c r="Q78">
-        <v>0.004504003328960461</v>
+        <v>0.002233880508917684</v>
       </c>
       <c r="R78">
-        <v>0.003628063806781197</v>
+        <v>0.002956555811424174</v>
       </c>
       <c r="S78">
-        <v>5.762334229593058E-06</v>
+        <v>3.773561364530608E-06</v>
       </c>
       <c r="T78">
-        <v>0.006613796580023638</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>0.002130180647442461</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>17.83108887068154</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>0.0013887841174335</v>
+        <v>5.030363008533087</v>
       </c>
       <c r="X78">
-        <v>1.614789888371192E-06</v>
+        <v>0.0007266537032572282</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.830451107055028E-06</v>
+        <v>5.733600535710945E-06</v>
       </c>
       <c r="C79">
-        <v>0.1675867130330011</v>
+        <v>0.131434100613962</v>
       </c>
       <c r="D79">
-        <v>0.01296528686277703</v>
+        <v>0.008606388266708551</v>
       </c>
       <c r="E79">
-        <v>0.1768276214509176</v>
+        <v>0.1401946346041394</v>
       </c>
       <c r="F79">
-        <v>9.006882802473697</v>
+        <v>9.296883102176325</v>
       </c>
       <c r="K79">
-        <v>7.699112809055326</v>
+        <v>8.424558019141152</v>
       </c>
       <c r="L79">
-        <v>8.214655358335094</v>
+        <v>7.273402080125404</v>
       </c>
       <c r="M79">
-        <v>8.356507891852873</v>
+        <v>8.426126359670445</v>
       </c>
       <c r="N79">
-        <v>0.06425027768184231</v>
+        <v>0.03879772421809249</v>
       </c>
       <c r="O79">
-        <v>0.004957258936095128</v>
+        <v>0.002132803856646872</v>
       </c>
       <c r="P79">
-        <v>0.05907619243250949</v>
+        <v>0.03429381580821705</v>
       </c>
       <c r="Q79">
-        <v>0.004782513484830009</v>
+        <v>0.002363252385522983</v>
       </c>
       <c r="R79">
-        <v>0.003785555175153006</v>
+        <v>0.003084937648383289</v>
       </c>
       <c r="S79">
-        <v>6.056310562070833E-06</v>
+        <v>3.977487992957098E-06</v>
       </c>
       <c r="T79">
-        <v>0.006808736403179342</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>0.00222630909172551</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>18.00239307341852</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>0.001452091728838122</v>
+        <v>5.076199473685548</v>
       </c>
       <c r="X79">
-        <v>1.615044359547234E-06</v>
+        <v>0.0007596151654151265</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.694766937822939E-06</v>
+        <v>5.618222299746607E-06</v>
       </c>
       <c r="C80">
-        <v>0.1746149596771022</v>
+        <v>0.1370171784479281</v>
       </c>
       <c r="D80">
-        <v>0.01387625207060519</v>
+        <v>0.009154995986064613</v>
       </c>
       <c r="E80">
-        <v>0.1843256749957082</v>
+        <v>0.1463144695940617</v>
       </c>
       <c r="F80">
-        <v>9.006854363052481</v>
+        <v>9.296854673159917</v>
       </c>
       <c r="K80">
-        <v>7.69381696913694</v>
+        <v>8.42138287793555</v>
       </c>
       <c r="L80">
-        <v>8.206291244331982</v>
+        <v>7.279282264648647</v>
       </c>
       <c r="M80">
-        <v>8.357846816678856</v>
+        <v>8.423289689787364</v>
       </c>
       <c r="N80">
-        <v>0.06694541489755809</v>
+        <v>0.04046431150724911</v>
       </c>
       <c r="O80">
-        <v>0.005275557690595061</v>
+        <v>0.002267408348932408</v>
       </c>
       <c r="P80">
-        <v>0.06154408693013128</v>
+        <v>0.03574520505470315</v>
       </c>
       <c r="Q80">
-        <v>0.005097698030696764</v>
+        <v>0.002508404771643689</v>
       </c>
       <c r="R80">
-        <v>0.003957350578088958</v>
+        <v>0.003224981292037395</v>
       </c>
       <c r="S80">
-        <v>6.386485999343725E-06</v>
+        <v>4.205887652954201E-06</v>
       </c>
       <c r="T80">
-        <v>0.00701702855369997</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>0.002332932636838456</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>18.18827061900491</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>0.001521194252378543</v>
+        <v>5.123853386305836</v>
       </c>
       <c r="X80">
-        <v>1.615309151543153E-06</v>
+        <v>0.0007955746255624096</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.548625469252373E-06</v>
+        <v>5.493085126925515E-06</v>
       </c>
       <c r="C81">
-        <v>0.1822691838488401</v>
+        <v>0.1431058538032549</v>
       </c>
       <c r="D81">
-        <v>0.01491920874907886</v>
+        <v>0.009776557825752107</v>
       </c>
       <c r="E81">
-        <v>0.1924751817923885</v>
+        <v>0.1529857961861953</v>
       </c>
       <c r="F81">
-        <v>9.006824776402613</v>
+        <v>9.296825098071769</v>
       </c>
       <c r="K81">
-        <v>7.688298451176057</v>
+        <v>8.418043990470389</v>
       </c>
       <c r="L81">
-        <v>8.197629274634071</v>
+        <v>7.285869984070882</v>
       </c>
       <c r="M81">
-        <v>8.359338178643364</v>
+        <v>8.420319731566439</v>
       </c>
       <c r="N81">
-        <v>0.06988207476455634</v>
+        <v>0.04228321165764515</v>
       </c>
       <c r="O81">
-        <v>0.005638381805502453</v>
+        <v>0.002419846070166763</v>
       </c>
       <c r="P81">
-        <v>0.06423201021105675</v>
+        <v>0.03732790983008694</v>
       </c>
       <c r="Q81">
-        <v>0.005457131286424597</v>
+        <v>0.002672360644205006</v>
       </c>
       <c r="R81">
-        <v>0.00414549172533132</v>
+        <v>0.003378351549389035</v>
       </c>
       <c r="S81">
-        <v>6.760042699436972E-06</v>
+        <v>4.463424637002786E-06</v>
       </c>
       <c r="T81">
-        <v>0.007240080740217186</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>0.002451902515186514</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>18.39033731302083</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0.001596923322046189</v>
+        <v>5.173494215227144</v>
       </c>
       <c r="X81">
-        <v>1.615585077441197E-06</v>
+        <v>0.0008349605465186796</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.390931150941243E-06</v>
+        <v>5.356966678945291E-06</v>
       </c>
       <c r="C82">
-        <v>0.1906366826038282</v>
+        <v>0.1497723186021301</v>
       </c>
       <c r="D82">
-        <v>0.01612370939461292</v>
+        <v>0.01048623333909409</v>
       </c>
       <c r="E82">
-        <v>0.2013620606492697</v>
+        <v>0.1602846402328868</v>
       </c>
       <c r="F82">
-        <v>9.006793920356492</v>
+        <v>9.29679425493695</v>
       </c>
       <c r="K82">
-        <v>7.682530226727631</v>
+        <v>8.4145253945953</v>
       </c>
       <c r="L82">
-        <v>8.18862067037294</v>
+        <v>7.293282439393274</v>
       </c>
       <c r="M82">
-        <v>8.360997730876191</v>
+        <v>8.417206333061177</v>
       </c>
       <c r="N82">
-        <v>0.07309425941250904</v>
+        <v>0.04427637993701907</v>
       </c>
       <c r="O82">
-        <v>0.006055515864871444</v>
+        <v>0.002593816995515065</v>
       </c>
       <c r="P82">
-        <v>0.06717075415728836</v>
+        <v>0.03906068728938104</v>
       </c>
       <c r="Q82">
-        <v>0.005870571005536322</v>
+        <v>0.002858954884182866</v>
       </c>
       <c r="R82">
-        <v>0.004352428309462915</v>
+        <v>0.003547045955626637</v>
       </c>
       <c r="S82">
-        <v>7.186360012967557E-06</v>
+        <v>4.756032474053179E-06</v>
       </c>
       <c r="T82">
-        <v>0.00747948965146872</v>
+        <v>0</v>
       </c>
       <c r="U82">
-        <v>0.00258551093677254</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>18.61052566391094</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>0.0016802760333178</v>
+        <v>5.225316237826384</v>
       </c>
       <c r="X82">
-        <v>1.615873488663618E-06</v>
+        <v>0.0008782873297734282</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.220480644396005E-06</v>
+        <v>5.208451899740967E-06</v>
       </c>
       <c r="C83">
-        <v>0.199821575930629</v>
+        <v>0.1571031651949214</v>
       </c>
       <c r="D83">
-        <v>0.01752840516993444</v>
+        <v>0.01130357462110199</v>
       </c>
       <c r="E83">
-        <v>0.2110875227702463</v>
+        <v>0.1683012405121487</v>
       </c>
       <c r="F83">
-        <v>9.006761652313457</v>
+        <v>9.29676200139154</v>
       </c>
       <c r="K83">
-        <v>7.676479069214289</v>
+        <v>8.410812762069943</v>
       </c>
       <c r="L83">
-        <v>8.179200455937563</v>
+        <v>7.30166599161175</v>
       </c>
       <c r="M83">
-        <v>8.362841381921454</v>
+        <v>8.413939452827206</v>
       </c>
       <c r="N83">
-        <v>0.07662261433606891</v>
+        <v>0.0464701990392035</v>
       </c>
       <c r="O83">
-        <v>0.006539725866933701</v>
+        <v>0.002794093340857855</v>
       </c>
       <c r="P83">
-        <v>0.07039707958632795</v>
+        <v>0.04096604162649673</v>
       </c>
       <c r="Q83">
-        <v>0.006350761916263728</v>
+        <v>0.0030731192719385</v>
       </c>
       <c r="R83">
-        <v>0.004581125254170807</v>
+        <v>0.00373348226737151</v>
       </c>
       <c r="S83">
-        <v>7.677689426324474E-06</v>
+        <v>5.091333536006542E-06</v>
       </c>
       <c r="T83">
-        <v>0.007737067478557993</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>0.002736635780560694</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>18.85116564266125</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0.001772459829680465</v>
+        <v>5.279550945744415</v>
       </c>
       <c r="X83">
-        <v>1.616176046539286E-06</v>
+        <v>0.0009261776979118197</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.035972622527777E-06</v>
+        <v>5.04590127313353E-06</v>
       </c>
       <c r="C84">
-        <v>0.2099489743062232</v>
+        <v>0.1652031424490225</v>
       </c>
       <c r="D84">
-        <v>0.01918464808761995</v>
+        <v>0.01225419569953211</v>
       </c>
       <c r="E84">
-        <v>0.2217715514221673</v>
+        <v>0.1771434268501895</v>
       </c>
       <c r="F84">
-        <v>9.006727804472767</v>
+        <v>9.296728169928635</v>
       </c>
       <c r="K84">
-        <v>7.67011424160374</v>
+        <v>8.406885296037107</v>
       </c>
       <c r="L84">
-        <v>8.16933001437363</v>
+        <v>7.31120128600819</v>
       </c>
       <c r="M84">
-        <v>8.364899314544967</v>
+        <v>8.410507398034534</v>
       </c>
       <c r="N84">
-        <v>0.08051610813990977</v>
+        <v>0.04889664935577826</v>
       </c>
       <c r="O84">
-        <v>0.007107949867540871</v>
+        <v>0.003026925137616359</v>
       </c>
       <c r="P84">
-        <v>0.07395520834577597</v>
+        <v>0.04307120397952775</v>
       </c>
       <c r="Q84">
-        <v>0.006914589829511106</v>
+        <v>0.003321294880764337</v>
       </c>
       <c r="R84">
-        <v>0.00483520567443439</v>
+        <v>0.003940615097029038</v>
       </c>
       <c r="S84">
-        <v>8.250020962445999E-06</v>
+        <v>5.479299502273695E-06</v>
       </c>
       <c r="T84">
-        <v>0.008014869239557843</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>0.00290894479969238</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>19.11509407574352</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>0.00187495247413075</v>
+        <v>5.336463869524628</v>
       </c>
       <c r="X84">
-        <v>1.616494287919813E-06</v>
+        <v>0.0009793932651200031</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.836036172616407E-06</v>
+        <v>4.867416786166425E-06</v>
       </c>
       <c r="C85">
-        <v>0.2211704052602586</v>
+        <v>0.1742001393166396</v>
       </c>
       <c r="D85">
-        <v>0.02116183858589972</v>
+        <v>0.01337224253087453</v>
       </c>
       <c r="E85">
-        <v>0.2335573861907688</v>
+        <v>0.186940983233454</v>
       </c>
       <c r="F85">
-        <v>9.006692177608308</v>
+        <v>9.296692561691167</v>
       </c>
       <c r="K85">
-        <v>7.663391947961243</v>
+        <v>8.402722327243954</v>
       </c>
       <c r="L85">
-        <v>8.158947574275535</v>
+        <v>7.322118701628474</v>
       </c>
       <c r="M85">
-        <v>8.367203653704111</v>
+        <v>8.406903630664008</v>
       </c>
       <c r="N85">
-        <v>0.08483423509710794</v>
+        <v>0.05159486842743484</v>
       </c>
       <c r="O85">
-        <v>0.007783024068960584</v>
+        <v>0.003300642367152123</v>
       </c>
       <c r="P85">
-        <v>0.07789877414085038</v>
+        <v>0.04540943392651384</v>
       </c>
       <c r="Q85">
-        <v>0.007584842677361816</v>
+        <v>0.003612037176353878</v>
       </c>
       <c r="R85">
-        <v>0.005119144242285681</v>
+        <v>0.004172093673354142</v>
       </c>
       <c r="S85">
-        <v>8.92489270795898E-06</v>
+        <v>5.93310822309341E-06</v>
       </c>
       <c r="T85">
-        <v>0.008315217736020519</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>0.003107141969205748</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>19.40579731449112</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>0.001989579053430401</v>
+        <v>5.396372703766534</v>
       </c>
       <c r="X85">
-        <v>1.616830402601938E-06</v>
+        <v>0.001038874702957285</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.619291929431722E-06</v>
+        <v>4.670808943599163E-06</v>
       </c>
       <c r="C86">
-        <v>0.233670940677406</v>
+        <v>0.1842518828657498</v>
       </c>
       <c r="D86">
-        <v>0.02355550634018434</v>
+        <v>0.01470413471095</v>
       </c>
       <c r="E86">
-        <v>0.2466173953791873</v>
+        <v>0.1978513451530625</v>
       </c>
       <c r="F86">
-        <v>9.006654532819933</v>
+        <v>9.296654938248409</v>
       </c>
       <c r="K86">
-        <v>7.656258822802578</v>
+        <v>8.398299751779186</v>
       </c>
       <c r="L86">
-        <v>8.147964319969395</v>
+        <v>7.334696345500145</v>
       </c>
       <c r="M86">
-        <v>8.369788169463225</v>
+        <v>8.403113057042566</v>
       </c>
       <c r="N86">
-        <v>0.0896499357863671</v>
+        <v>0.05461325755620248</v>
       </c>
       <c r="O86">
-        <v>0.008596315486575148</v>
+        <v>0.003626572427466431</v>
       </c>
       <c r="P86">
-        <v>0.08229339485731836</v>
+        <v>0.0480217712233988</v>
       </c>
       <c r="Q86">
-        <v>0.008392850480163739</v>
+        <v>0.003956952948765334</v>
       </c>
       <c r="R86">
-        <v>0.005438532951634286</v>
+        <v>0.004432478708674831</v>
       </c>
       <c r="S86">
-        <v>9.731870685579432E-06</v>
+        <v>6.47075744950158E-06</v>
       </c>
       <c r="T86">
-        <v>0.008640722471446436</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0.003337321143319364</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>19.72760212889767</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>0.002118622052333304</v>
+        <v>5.459656697236973</v>
       </c>
       <c r="X86">
-        <v>1.617187058859871E-06</v>
+        <v>0.001105798046273565</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.384469611678516E-06</v>
+        <v>4.453572396307363E-06</v>
       </c>
       <c r="C87">
-        <v>0.2476786362998874</v>
+        <v>0.1955550660760698</v>
       </c>
       <c r="D87">
-        <v>0.02649972421488279</v>
+        <v>0.01631438226672079</v>
       </c>
       <c r="E87">
-        <v>0.261160926002251</v>
+        <v>0.2100671356690517</v>
       </c>
       <c r="F87">
-        <v>9.00661458041016</v>
+        <v>9.296615010508713</v>
       </c>
       <c r="K87">
-        <v>7.648650915031273</v>
+        <v>8.393590041536374</v>
       </c>
       <c r="L87">
-        <v>8.136296238895321</v>
+        <v>7.349298171800746</v>
       </c>
       <c r="M87">
-        <v>8.37270176501603</v>
+        <v>8.399131068551794</v>
       </c>
       <c r="N87">
-        <v>0.09505351047301989</v>
+        <v>0.05801236989811821</v>
       </c>
       <c r="O87">
-        <v>0.009591770338860148</v>
+        <v>0.004020451624785562</v>
       </c>
       <c r="P87">
-        <v>0.08722009781579534</v>
+        <v>0.05095942577504103</v>
       </c>
       <c r="Q87">
-        <v>0.009382502752678851</v>
+        <v>0.00437211085871043</v>
       </c>
       <c r="R87">
-        <v>0.005800453023697532</v>
+        <v>0.004727545905423186</v>
       </c>
       <c r="S87">
-        <v>1.071194872906676E-05</v>
+        <v>7.117016456889291E-06</v>
       </c>
       <c r="T87">
-        <v>0.008994282559988241</v>
+        <v>0</v>
       </c>
       <c r="U87">
-        <v>0.003607457704820833</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>20.08593338207612</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>0.002264975266194738</v>
+        <v>5.526775958860998</v>
       </c>
       <c r="X87">
-        <v>1.617567454248436E-06</v>
+        <v>0.001181653922861111</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.428943732396642E-06</v>
+        <v>8.709453757505136E-06</v>
       </c>
       <c r="C88">
-        <v>0.2634771300202449</v>
+        <v>0.2083579720624519</v>
       </c>
       <c r="D88">
-        <v>0.01387402230693253</v>
+        <v>0.009380487195586738</v>
       </c>
       <c r="E88">
-        <v>0.2835478346047286</v>
+        <v>0.2272442724031381</v>
       </c>
       <c r="F88">
-        <v>14.20661458041016</v>
+        <v>14.49661501050871</v>
       </c>
       <c r="K88">
-        <v>7.640499464302085</v>
+        <v>8.388566450043534</v>
       </c>
       <c r="L88">
-        <v>8.282350271772668</v>
+        <v>7.091995892162904</v>
       </c>
       <c r="M88">
-        <v>8.382990806211533</v>
+        <v>8.393212920225411</v>
       </c>
       <c r="N88">
-        <v>0.1011579204826027</v>
+        <v>0.06186893548907055</v>
       </c>
       <c r="O88">
-        <v>0.005433313053552784</v>
+        <v>0.002298797007586755</v>
       </c>
       <c r="P88">
-        <v>0.09277992603458939</v>
+        <v>0.05428709112620751</v>
       </c>
       <c r="Q88">
-        <v>0.005195061282968295</v>
+        <v>0.002679599671718338</v>
       </c>
       <c r="R88">
-        <v>0.006214005957623852</v>
+        <v>0.005064719397492207</v>
       </c>
       <c r="S88">
-        <v>5.275951275249919E-06</v>
+        <v>4.035021712206261E-06</v>
       </c>
       <c r="T88">
-        <v>0.009379055763928772</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>0.002435787253118694</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>20.24733432255164</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>0.002432390851414189</v>
+        <v>5.598300975172691</v>
       </c>
       <c r="X88">
-        <v>1.617975026784896E-06</v>
+        <v>0.00126836816065133</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.037435857014303E-06</v>
+        <v>8.376413650570124E-06</v>
       </c>
       <c r="C89">
-        <v>0.2826773690751151</v>
+        <v>0.2236639324368261</v>
       </c>
       <c r="D89">
-        <v>0.01567929444245474</v>
+        <v>0.01047470082657306</v>
       </c>
       <c r="E89">
-        <v>0.3043816202457412</v>
+        <v>0.2444491727981591</v>
       </c>
       <c r="F89">
-        <v>14.20532491053986</v>
+        <v>14.49532551245201</v>
       </c>
       <c r="K89">
-        <v>7.632270487008917</v>
+        <v>8.382138993851786</v>
       </c>
       <c r="L89">
-        <v>8.238144940874401</v>
+        <v>7.106029067067981</v>
       </c>
       <c r="M89">
-        <v>8.377789703943623</v>
+        <v>8.386142803751911</v>
       </c>
       <c r="N89">
-        <v>0.1085213518232989</v>
+        <v>0.06645125383380007</v>
       </c>
       <c r="O89">
-        <v>0.00607459495642157</v>
+        <v>0.002575399431495819</v>
       </c>
       <c r="P89">
-        <v>0.09951722332317563</v>
+        <v>0.05825689816116822</v>
       </c>
       <c r="Q89">
-        <v>0.005849696872872521</v>
+        <v>0.002986407212561083</v>
       </c>
       <c r="R89">
-        <v>0.006691600573496822</v>
+        <v>0.005454002811013746</v>
       </c>
       <c r="S89">
-        <v>5.994786797747236E-06</v>
+        <v>4.464553526503646E-06</v>
       </c>
       <c r="T89">
-        <v>0.009913153341683394</v>
+        <v>0</v>
       </c>
       <c r="U89">
-        <v>0.002641139095431755</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>20.4377623400919</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>0.002625444491006544</v>
+        <v>5.671318490104543</v>
       </c>
       <c r="X89">
-        <v>1.618386475649554E-06</v>
+        <v>0.001368341039890244</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.593729809767316E-06</v>
+        <v>7.994924392081393E-06</v>
       </c>
       <c r="C90">
-        <v>0.3049272086278368</v>
+        <v>0.2414297017376806</v>
       </c>
       <c r="D90">
-        <v>0.01799058450061639</v>
+        <v>0.01184433466550276</v>
       </c>
       <c r="E90">
-        <v>0.3283648736603552</v>
+        <v>0.2643631616660448</v>
       </c>
       <c r="F90">
-        <v>14.20528325823707</v>
+        <v>14.49528387942554</v>
       </c>
       <c r="K90">
-        <v>7.623538832541252</v>
+        <v>8.375160295495709</v>
       </c>
       <c r="L90">
-        <v>8.227215118964979</v>
+        <v>7.119926568741829</v>
       </c>
       <c r="M90">
-        <v>8.381412446196325</v>
+        <v>8.3794766906995</v>
       </c>
       <c r="N90">
-        <v>0.1170585815622053</v>
+        <v>0.07177424170065877</v>
       </c>
       <c r="O90">
-        <v>0.006876872773836106</v>
+        <v>0.002908691194146851</v>
       </c>
       <c r="P90">
-        <v>0.1073228505273675</v>
+        <v>0.06286277240688548</v>
       </c>
       <c r="Q90">
-        <v>0.006637241378694576</v>
+        <v>0.003355699738470289</v>
       </c>
       <c r="R90">
-        <v>0.007248734389055079</v>
+        <v>0.005908130999137683</v>
       </c>
       <c r="S90">
-        <v>6.647786069510147E-06</v>
+        <v>4.986460688485746E-06</v>
       </c>
       <c r="T90">
-        <v>0.01051915452887103</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>0.002908648955251203</v>
+        <v>0</v>
       </c>
       <c r="V90">
-        <v>20.66602434202373</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>0.002850862584530392</v>
+        <v>5.749722066512163</v>
       </c>
       <c r="X90">
-        <v>1.618823058372937E-06</v>
+        <v>0.001484993998968735</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.087118046889932E-06</v>
+        <v>7.552963525146948E-06</v>
       </c>
       <c r="C91">
-        <v>0.331012356275766</v>
+        <v>0.2623010987442422</v>
       </c>
       <c r="D91">
-        <v>0.02104521769338037</v>
+        <v>0.01360573433439286</v>
       </c>
       <c r="E91">
-        <v>0.3562224139835504</v>
+        <v>0.287642041429083</v>
       </c>
       <c r="F91">
-        <v>14.20523795563361</v>
+        <v>14.49523860009287</v>
       </c>
       <c r="K91">
-        <v>7.614023004934291</v>
+        <v>8.367539100855479</v>
       </c>
       <c r="L91">
-        <v>8.214927579321039</v>
+        <v>7.137331189000983</v>
       </c>
       <c r="M91">
-        <v>8.38563410060801</v>
+        <v>8.3722655834988</v>
       </c>
       <c r="N91">
-        <v>0.1270751005429662</v>
+        <v>0.07803474629215985</v>
       </c>
       <c r="O91">
-        <v>0.007926231623225304</v>
+        <v>0.003337079909566291</v>
       </c>
       <c r="P91">
-        <v>0.1164760877227015</v>
+        <v>0.06827250628583233</v>
       </c>
       <c r="Q91">
-        <v>0.007668650723011768</v>
+        <v>0.003826362511190865</v>
       </c>
       <c r="R91">
-        <v>0.007907105898417404</v>
+        <v>0.006444780502633065</v>
       </c>
       <c r="S91">
-        <v>7.49209441718824E-06</v>
+        <v>5.651225595238975E-06</v>
       </c>
       <c r="T91">
-        <v>0.01121101867192738</v>
+        <v>0</v>
       </c>
       <c r="U91">
-        <v>0.003244875004059877</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>20.94155677913327</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>0.003117462916612994</v>
+        <v>5.834473767574689</v>
       </c>
       <c r="X91">
-        <v>1.619298849753285E-06</v>
+        <v>0.001622881057438269</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.50679470563467E-06</v>
+        <v>7.036663068986333E-06</v>
       </c>
       <c r="C92">
-        <v>0.3620090701340046</v>
+        <v>0.2871706351852272</v>
       </c>
       <c r="D92">
-        <v>0.02524078358207767</v>
+        <v>0.01594598783474137</v>
       </c>
       <c r="E92">
-        <v>0.3889137647329302</v>
+        <v>0.3151634376886881</v>
       </c>
       <c r="F92">
-        <v>14.20518821866498</v>
+        <v>14.49518889171514</v>
       </c>
       <c r="K92">
-        <v>7.603538510566608</v>
+        <v>8.359161251594442</v>
       </c>
       <c r="L92">
-        <v>8.200419805912235</v>
+        <v>7.159508209300563</v>
       </c>
       <c r="M92">
-        <v>8.390610166067356</v>
+        <v>8.364455486774919</v>
       </c>
       <c r="N92">
-        <v>0.1389899874349403</v>
+        <v>0.08550451293041923</v>
       </c>
       <c r="O92">
-        <v>0.009351606331604822</v>
+        <v>0.003905858002285789</v>
       </c>
       <c r="P92">
-        <v>0.1273568314226704</v>
+        <v>0.07471712066329649</v>
       </c>
       <c r="Q92">
-        <v>0.009072045458725527</v>
+        <v>0.004445330510617799</v>
       </c>
       <c r="R92">
-        <v>0.008697067278817427</v>
+        <v>0.007088693430336849</v>
       </c>
       <c r="S92">
-        <v>8.625425013441782E-06</v>
+        <v>6.525412646799931E-06</v>
       </c>
       <c r="T92">
-        <v>0.01200763303871413</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>0.003680393041998888</v>
+        <v>0</v>
       </c>
       <c r="V92">
-        <v>21.27808897838946</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>0.003437632948573919</v>
+        <v>5.926838495469859</v>
       </c>
       <c r="X92">
-        <v>1.61982307447167E-06</v>
+        <v>0.001788379453309092</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.842140957220448E-06</v>
+        <v>6.428685101150121E-06</v>
       </c>
       <c r="C93">
-        <v>0.3994277686397743</v>
+        <v>0.317306707113059</v>
       </c>
       <c r="D93">
-        <v>0.03129184624746505</v>
+        <v>0.01918733684924652</v>
       </c>
       <c r="E93">
-        <v>0.4277322710038635</v>
+        <v>0.3481189276052463</v>
       </c>
       <c r="F93">
-        <v>14.20513298810096</v>
+        <v>14.4951336970287</v>
       </c>
       <c r="K93">
-        <v>7.591833492736421</v>
+        <v>8.349879411262261</v>
       </c>
       <c r="L93">
-        <v>8.182539407072994</v>
+        <v>7.188354553071328</v>
       </c>
       <c r="M93">
-        <v>8.396533989510385</v>
+        <v>8.355975688121744</v>
       </c>
       <c r="N93">
-        <v>0.1533942520019776</v>
+        <v>0.09457103014465629</v>
       </c>
       <c r="O93">
-        <v>0.01138420003928145</v>
+        <v>0.004693137997331243</v>
       </c>
       <c r="P93">
-        <v>0.1404995854186643</v>
+        <v>0.08252509734692746</v>
       </c>
       <c r="Q93">
-        <v>0.0110774371034943</v>
+        <v>0.005292951466745441</v>
       </c>
       <c r="R93">
-        <v>0.00966244970701787</v>
+        <v>0.007875600987857966</v>
       </c>
       <c r="S93">
-        <v>1.022182399574092E-05</v>
+        <v>7.72330912813626E-06</v>
       </c>
       <c r="T93">
-        <v>0.01293288192723805</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>0.004265820383056222</v>
+        <v>0</v>
       </c>
       <c r="V93">
-        <v>21.69646202630915</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>0.003829276780597862</v>
+        <v>6.028511502830217</v>
       </c>
       <c r="X93">
-        <v>1.620408325363179E-06</v>
+        <v>0.001990703442513435</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.086825792017481E-06</v>
+        <v>5.708259318998251E-06</v>
       </c>
       <c r="C94">
-        <v>0.445444758938813</v>
+        <v>0.3545716283960357</v>
       </c>
       <c r="D94">
-        <v>0.04057856787662036</v>
+        <v>0.02392811212951826</v>
       </c>
       <c r="E94">
-        <v>0.4744810738978243</v>
+        <v>0.3881624295944722</v>
       </c>
       <c r="F94">
-        <v>14.20507078680208</v>
+        <v>14.49507154193406</v>
       </c>
       <c r="K94">
-        <v>7.578557470720794</v>
+        <v>8.339507176797499</v>
       </c>
       <c r="L94">
-        <v>8.159777642706535</v>
+        <v>7.226789896856103</v>
       </c>
       <c r="M94">
-        <v>8.403735891758801</v>
+        <v>8.346763147729876</v>
       </c>
       <c r="N94">
-        <v>0.1711455084973146</v>
+        <v>0.1058057666630719</v>
       </c>
       <c r="O94">
-        <v>0.01446887064786438</v>
+        <v>0.00584397152313843</v>
       </c>
       <c r="P94">
-        <v>0.1566773539580606</v>
+        <v>0.09217911558195023</v>
       </c>
       <c r="Q94">
-        <v>0.0141278511084793</v>
+        <v>0.006517353118242928</v>
       </c>
       <c r="R94">
-        <v>0.01086897819239564</v>
+        <v>0.008859085697699196</v>
       </c>
       <c r="S94">
-        <v>1.260957126748396E-05</v>
+        <v>9.455848540543553E-06</v>
       </c>
       <c r="T94">
-        <v>0.01401626462026078</v>
+        <v>0</v>
       </c>
       <c r="U94">
-        <v>0.005088775460449497</v>
+        <v>0</v>
       </c>
       <c r="V94">
-        <v>22.22982085372903</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>0.004319274455368857</v>
+        <v>6.141854020966079</v>
       </c>
       <c r="X94">
-        <v>1.62107212646396E-06</v>
+        <v>0.002243678722497791</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.248377077158212E-06</v>
+        <v>4.85202952932064E-06</v>
       </c>
       <c r="C95">
-        <v>0.503282786233412</v>
+        <v>0.4018064164341097</v>
       </c>
       <c r="D95">
-        <v>0.05598507018135671</v>
+        <v>0.03139802606701926</v>
       </c>
       <c r="E95">
-        <v>0.5318108646350796</v>
+        <v>0.4376490917725039</v>
       </c>
       <c r="F95">
-        <v>14.20279183972963</v>
+        <v>14.49279318463729</v>
       </c>
       <c r="K95">
-        <v>7.563188090509312</v>
+        <v>8.327794607181215</v>
       </c>
       <c r="L95">
-        <v>8.130046531160559</v>
+        <v>7.279479674454369</v>
       </c>
       <c r="M95">
-        <v>8.412740822963526</v>
+        <v>8.336763161226729</v>
       </c>
       <c r="N95">
-        <v>0.1935278853329504</v>
+        <v>0.1200860231116339</v>
       </c>
       <c r="O95">
-        <v>0.0195318765786766</v>
+        <v>0.00765658394614849</v>
       </c>
       <c r="P95">
-        <v>0.177041568650858</v>
+        <v>0.1044165102196227</v>
       </c>
       <c r="Q95">
-        <v>0.01914693940725973</v>
+        <v>0.008421115200635118</v>
       </c>
       <c r="R95">
-        <v>0.01241988799541395</v>
+        <v>0.01012331853329329</v>
       </c>
       <c r="S95">
-        <v>1.645363501739501E-05</v>
+        <v>1.215451562981697E-05</v>
       </c>
       <c r="T95">
-        <v>0.01529162021451954</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>0.00630440273158013</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>22.93302474541456</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>0.004949902799327265</v>
+        <v>6.27028196945389</v>
       </c>
       <c r="X95">
-        <v>1.621840595474534E-06</v>
+        <v>0.002569038605971118</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.377526559839239E-06</v>
+        <v>3.850997954492636E-06</v>
       </c>
       <c r="C96">
-        <v>0.5778324055754215</v>
+        <v>0.4635411481619582</v>
       </c>
       <c r="D96">
-        <v>0.08365880065044307</v>
+        <v>0.04438455758924716</v>
       </c>
       <c r="E96">
-        <v>0.6040696340118368</v>
+        <v>0.5001841322219178</v>
       </c>
       <c r="F96">
-        <v>14.2025937497335</v>
+        <v>14.49259529656788</v>
       </c>
       <c r="K96">
-        <v>7.544841720279581</v>
+        <v>8.314460863483987</v>
       </c>
       <c r="L96">
-        <v>8.091745902808576</v>
+        <v>7.353066771303759</v>
       </c>
       <c r="M96">
-        <v>8.424554691928886</v>
+        <v>8.325996573414347</v>
       </c>
       <c r="N96">
-        <v>0.2225272201253295</v>
+        <v>0.1388242629725481</v>
       </c>
       <c r="O96">
-        <v>0.02853883752419568</v>
+        <v>0.01080690551376762</v>
       </c>
       <c r="P96">
-        <v>0.2033573401914577</v>
+        <v>0.1204157427227874</v>
       </c>
       <c r="Q96">
-        <v>0.02809588318643638</v>
+        <v>0.01168661742463503</v>
       </c>
       <c r="R96">
-        <v>0.01448712705548004</v>
+        <v>0.01180851253623721</v>
       </c>
       <c r="S96">
-        <v>2.307585603823941E-05</v>
+        <v>1.678612166571788E-05</v>
       </c>
       <c r="T96">
-        <v>0.01678948979500944</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>0.008156629063852422</v>
+        <v>0</v>
       </c>
       <c r="V96">
-        <v>23.89459848297479</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>0.005791701779305432</v>
+        <v>6.419108583875811</v>
       </c>
       <c r="X96">
-        <v>1.622757913986021E-06</v>
+        <v>0.003003024151790021</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.584312004421985E-06</v>
+        <v>2.736632776800061E-06</v>
       </c>
       <c r="C97">
-        <v>0.6766671265604159</v>
+        <v>0.5473724662764994</v>
       </c>
       <c r="D97">
-        <v>0.1358437893427935</v>
+        <v>0.07012224632350259</v>
       </c>
       <c r="E97">
-        <v>0.6989493523515825</v>
+        <v>0.5818524801148222</v>
       </c>
       <c r="F97">
-        <v>14.20235378181996</v>
+        <v>14.49235562527688</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.2613248966455557</v>
+        <v>0.1644277344643039</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.2384096315924615</v>
+        <v>0.1421615677824176</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.01737993729536837</v>
+        <v>0.01416685781915148</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.01851606194124081</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>23.6456964154438</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
